--- a/raw_data/20200818_saline/20200818_Sensor1_Test_95.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor1_Test_95.xlsx
@@ -1,2035 +1,2451 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B07B8D8-0B00-4B99-95C7-4298728725E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>84788.711717</v>
+        <v>84788.711716999998</v>
       </c>
       <c r="B2" s="1">
-        <v>23.552420</v>
+        <v>23.552420000000001</v>
       </c>
       <c r="C2" s="1">
-        <v>908.464000</v>
+        <v>908.46400000000006</v>
       </c>
       <c r="D2" s="1">
-        <v>-201.781000</v>
+        <v>-201.78100000000001</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>84799.349415</v>
+        <v>84799.349415000004</v>
       </c>
       <c r="G2" s="1">
-        <v>23.555375</v>
+        <v>23.555375000000002</v>
       </c>
       <c r="H2" s="1">
-        <v>926.418000</v>
+        <v>926.41800000000001</v>
       </c>
       <c r="I2" s="1">
-        <v>-171.090000</v>
+        <v>-171.09</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>84809.530795</v>
+        <v>84809.530794999999</v>
       </c>
       <c r="L2" s="1">
-        <v>23.558203</v>
+        <v>23.558202999999999</v>
       </c>
       <c r="M2" s="1">
-        <v>950.511000</v>
+        <v>950.51099999999997</v>
       </c>
       <c r="N2" s="1">
-        <v>-121.788000</v>
+        <v>-121.788</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>84820.018737</v>
+        <v>84820.018737000006</v>
       </c>
       <c r="Q2" s="1">
-        <v>23.561116</v>
+        <v>23.561115999999998</v>
       </c>
       <c r="R2" s="1">
-        <v>957.481000</v>
+        <v>957.48099999999999</v>
       </c>
       <c r="S2" s="1">
-        <v>-105.259000</v>
+        <v>-105.259</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>84830.594398</v>
+        <v>84830.594398000001</v>
       </c>
       <c r="V2" s="1">
-        <v>23.564054</v>
+        <v>23.564053999999999</v>
       </c>
       <c r="W2" s="1">
-        <v>964.343000</v>
+        <v>964.34299999999996</v>
       </c>
       <c r="X2" s="1">
-        <v>-89.959700</v>
+        <v>-89.959699999999998</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>84841.050064</v>
+        <v>84841.050063999995</v>
       </c>
       <c r="AA2" s="1">
         <v>23.566958</v>
       </c>
       <c r="AB2" s="1">
-        <v>971.785000</v>
+        <v>971.78499999999997</v>
       </c>
       <c r="AC2" s="1">
-        <v>-77.845600</v>
+        <v>-77.845600000000005</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>84851.624274</v>
+        <v>84851.624274000002</v>
       </c>
       <c r="AF2" s="1">
         <v>23.569896</v>
       </c>
       <c r="AG2" s="1">
-        <v>976.694000</v>
+        <v>976.69399999999996</v>
       </c>
       <c r="AH2" s="1">
-        <v>-75.491100</v>
+        <v>-75.491100000000003</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>84862.372580</v>
+        <v>84862.372579999996</v>
       </c>
       <c r="AK2" s="1">
-        <v>23.572881</v>
+        <v>23.572880999999999</v>
       </c>
       <c r="AL2" s="1">
-        <v>984.151000</v>
+        <v>984.15099999999995</v>
       </c>
       <c r="AM2" s="1">
-        <v>-79.876900</v>
+        <v>-79.876900000000006</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>84872.889750</v>
+        <v>84872.889750000002</v>
       </c>
       <c r="AP2" s="1">
-        <v>23.575803</v>
+        <v>23.575803000000001</v>
       </c>
       <c r="AQ2" s="1">
-        <v>992.305000</v>
+        <v>992.30499999999995</v>
       </c>
       <c r="AR2" s="1">
-        <v>-91.122500</v>
+        <v>-91.122500000000002</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>84883.920776</v>
+        <v>84883.920775999999</v>
       </c>
       <c r="AU2" s="1">
-        <v>23.578867</v>
+        <v>23.578866999999999</v>
       </c>
       <c r="AV2" s="1">
-        <v>1002.190000</v>
+        <v>1002.19</v>
       </c>
       <c r="AW2" s="1">
-        <v>-108.458000</v>
+        <v>-108.458</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>84895.008344</v>
+        <v>84895.008344000002</v>
       </c>
       <c r="AZ2" s="1">
         <v>23.581947</v>
       </c>
       <c r="BA2" s="1">
-        <v>1010.460000</v>
+        <v>1010.46</v>
       </c>
       <c r="BB2" s="1">
-        <v>-123.889000</v>
+        <v>-123.889</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>84906.017050</v>
+        <v>84906.017049999995</v>
       </c>
       <c r="BE2" s="1">
-        <v>23.585005</v>
+        <v>23.585004999999999</v>
       </c>
       <c r="BF2" s="1">
-        <v>1049.260000</v>
+        <v>1049.26</v>
       </c>
       <c r="BG2" s="1">
-        <v>-194.858000</v>
+        <v>-194.858</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>84916.946395</v>
+        <v>84916.946395000006</v>
       </c>
       <c r="BJ2" s="1">
         <v>23.588041</v>
       </c>
       <c r="BK2" s="1">
-        <v>1116.240000</v>
+        <v>1116.24</v>
       </c>
       <c r="BL2" s="1">
-        <v>-309.413000</v>
+        <v>-309.41300000000001</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
         <v>84928.368766</v>
       </c>
       <c r="BO2" s="1">
-        <v>23.591214</v>
+        <v>23.591214000000001</v>
       </c>
       <c r="BP2" s="1">
-        <v>1224.490000</v>
+        <v>1224.49</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-488.758000</v>
+        <v>-488.75799999999998</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>84940.012877</v>
+        <v>84940.012877000001</v>
       </c>
       <c r="BT2" s="1">
         <v>23.594448</v>
       </c>
       <c r="BU2" s="1">
-        <v>1345.300000</v>
+        <v>1345.3</v>
       </c>
       <c r="BV2" s="1">
-        <v>-684.635000</v>
+        <v>-684.63499999999999</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>84950.736847</v>
+        <v>84950.736846999993</v>
       </c>
       <c r="BY2" s="1">
         <v>23.597427</v>
       </c>
       <c r="BZ2" s="1">
-        <v>1479.950000</v>
+        <v>1479.95</v>
       </c>
       <c r="CA2" s="1">
-        <v>-892.089000</v>
+        <v>-892.08900000000006</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>84961.668673</v>
+        <v>84961.668672999993</v>
       </c>
       <c r="CD2" s="1">
-        <v>23.600464</v>
+        <v>23.600463999999999</v>
       </c>
       <c r="CE2" s="1">
-        <v>1828.710000</v>
+        <v>1828.71</v>
       </c>
       <c r="CF2" s="1">
-        <v>-1382.960000</v>
+        <v>-1382.96</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>84789.132326</v>
+        <v>84789.132326000006</v>
       </c>
       <c r="B3" s="1">
-        <v>23.552537</v>
+        <v>23.552537000000001</v>
       </c>
       <c r="C3" s="1">
-        <v>908.340000</v>
+        <v>908.34</v>
       </c>
       <c r="D3" s="1">
-        <v>-201.903000</v>
+        <v>-201.90299999999999</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>84799.460520</v>
+        <v>84799.460519999993</v>
       </c>
       <c r="G3" s="1">
-        <v>23.555406</v>
+        <v>23.555406000000001</v>
       </c>
       <c r="H3" s="1">
-        <v>926.522000</v>
+        <v>926.52200000000005</v>
       </c>
       <c r="I3" s="1">
-        <v>-170.815000</v>
+        <v>-170.815</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>84809.892873</v>
+        <v>84809.892873000004</v>
       </c>
       <c r="L3" s="1">
         <v>23.558304</v>
       </c>
       <c r="M3" s="1">
-        <v>950.343000</v>
+        <v>950.34299999999996</v>
       </c>
       <c r="N3" s="1">
-        <v>-121.756000</v>
+        <v>-121.756</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>84820.397676</v>
+        <v>84820.397675999993</v>
       </c>
       <c r="Q3" s="1">
-        <v>23.561222</v>
+        <v>23.561222000000001</v>
       </c>
       <c r="R3" s="1">
-        <v>957.450000</v>
+        <v>957.45</v>
       </c>
       <c r="S3" s="1">
-        <v>-105.201000</v>
+        <v>-105.20099999999999</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>84830.974829</v>
+        <v>84830.974828999999</v>
       </c>
       <c r="V3" s="1">
-        <v>23.564160</v>
+        <v>23.564160000000001</v>
       </c>
       <c r="W3" s="1">
-        <v>964.331000</v>
+        <v>964.33100000000002</v>
       </c>
       <c r="X3" s="1">
-        <v>-89.872100</v>
+        <v>-89.872100000000003</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>84841.442436</v>
+        <v>84841.442435999998</v>
       </c>
       <c r="AA3" s="1">
-        <v>23.567067</v>
+        <v>23.567067000000002</v>
       </c>
       <c r="AB3" s="1">
-        <v>971.845000</v>
+        <v>971.84500000000003</v>
       </c>
       <c r="AC3" s="1">
-        <v>-77.861700</v>
+        <v>-77.861699999999999</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>84852.340497</v>
+        <v>84852.340496999997</v>
       </c>
       <c r="AF3" s="1">
-        <v>23.570095</v>
+        <v>23.570094999999998</v>
       </c>
       <c r="AG3" s="1">
-        <v>976.726000</v>
+        <v>976.726</v>
       </c>
       <c r="AH3" s="1">
-        <v>-75.515700</v>
+        <v>-75.515699999999995</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>84862.722260</v>
+        <v>84862.722259999995</v>
       </c>
       <c r="AK3" s="1">
-        <v>23.572978</v>
+        <v>23.572977999999999</v>
       </c>
       <c r="AL3" s="1">
-        <v>984.106000</v>
+        <v>984.10599999999999</v>
       </c>
       <c r="AM3" s="1">
-        <v>-79.865600</v>
+        <v>-79.865600000000001</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>84873.282739</v>
+        <v>84873.282739000002</v>
       </c>
       <c r="AP3" s="1">
-        <v>23.575912</v>
+        <v>23.575911999999999</v>
       </c>
       <c r="AQ3" s="1">
-        <v>992.295000</v>
+        <v>992.29499999999996</v>
       </c>
       <c r="AR3" s="1">
-        <v>-91.119000</v>
+        <v>-91.119</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
         <v>84884.317079</v>
       </c>
       <c r="AU3" s="1">
-        <v>23.578977</v>
+        <v>23.578976999999998</v>
       </c>
       <c r="AV3" s="1">
-        <v>1002.160000</v>
+        <v>1002.16</v>
       </c>
       <c r="AW3" s="1">
-        <v>-108.442000</v>
+        <v>-108.44199999999999</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>84895.408617</v>
+        <v>84895.408616999994</v>
       </c>
       <c r="AZ3" s="1">
         <v>23.582058</v>
       </c>
       <c r="BA3" s="1">
-        <v>1010.480000</v>
+        <v>1010.48</v>
       </c>
       <c r="BB3" s="1">
-        <v>-123.902000</v>
+        <v>-123.902</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>84906.719882</v>
+        <v>84906.719882000005</v>
       </c>
       <c r="BE3" s="1">
-        <v>23.585200</v>
+        <v>23.5852</v>
       </c>
       <c r="BF3" s="1">
-        <v>1049.250000</v>
+        <v>1049.25</v>
       </c>
       <c r="BG3" s="1">
-        <v>-194.843000</v>
+        <v>-194.84299999999999</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
-        <v>84917.397259</v>
+        <v>84917.397259000005</v>
       </c>
       <c r="BJ3" s="1">
-        <v>23.588166</v>
+        <v>23.588166000000001</v>
       </c>
       <c r="BK3" s="1">
-        <v>1116.220000</v>
+        <v>1116.22</v>
       </c>
       <c r="BL3" s="1">
-        <v>-309.413000</v>
+        <v>-309.41300000000001</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>84928.873693</v>
+        <v>84928.873693000001</v>
       </c>
       <c r="BO3" s="1">
-        <v>23.591354</v>
+        <v>23.591353999999999</v>
       </c>
       <c r="BP3" s="1">
-        <v>1224.520000</v>
+        <v>1224.52</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-488.729000</v>
+        <v>-488.72899999999998</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
-        <v>84940.454284</v>
+        <v>84940.454284000007</v>
       </c>
       <c r="BT3" s="1">
-        <v>23.594571</v>
+        <v>23.594570999999998</v>
       </c>
       <c r="BU3" s="1">
-        <v>1345.350000</v>
+        <v>1345.35</v>
       </c>
       <c r="BV3" s="1">
-        <v>-684.609000</v>
+        <v>-684.60900000000004</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>84951.223918</v>
+        <v>84951.223918000003</v>
       </c>
       <c r="BY3" s="1">
         <v>23.597562</v>
       </c>
       <c r="BZ3" s="1">
-        <v>1480.010000</v>
+        <v>1480.01</v>
       </c>
       <c r="CA3" s="1">
-        <v>-892.096000</v>
+        <v>-892.096</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
         <v>84962.244561</v>
       </c>
       <c r="CD3" s="1">
-        <v>23.600623</v>
+        <v>23.600622999999999</v>
       </c>
       <c r="CE3" s="1">
-        <v>1829.870000</v>
+        <v>1829.87</v>
       </c>
       <c r="CF3" s="1">
-        <v>-1384.050000</v>
+        <v>-1384.05</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>84789.476548</v>
+        <v>84789.476548000006</v>
       </c>
       <c r="B4" s="1">
-        <v>23.552632</v>
+        <v>23.552631999999999</v>
       </c>
       <c r="C4" s="1">
-        <v>908.434000</v>
+        <v>908.43399999999997</v>
       </c>
       <c r="D4" s="1">
-        <v>-201.872000</v>
+        <v>-201.87200000000001</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>84799.796310</v>
+        <v>84799.796310000005</v>
       </c>
       <c r="G4" s="1">
-        <v>23.555499</v>
+        <v>23.555499000000001</v>
       </c>
       <c r="H4" s="1">
-        <v>926.593000</v>
+        <v>926.59299999999996</v>
       </c>
       <c r="I4" s="1">
-        <v>-171.069000</v>
+        <v>-171.06899999999999</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>84810.241065</v>
+        <v>84810.241064999995</v>
       </c>
       <c r="L4" s="1">
-        <v>23.558400</v>
+        <v>23.558399999999999</v>
       </c>
       <c r="M4" s="1">
-        <v>950.428000</v>
+        <v>950.428</v>
       </c>
       <c r="N4" s="1">
-        <v>-121.725000</v>
+        <v>-121.72499999999999</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>84820.745835</v>
+        <v>84820.745834999994</v>
       </c>
       <c r="Q4" s="1">
         <v>23.561318</v>
       </c>
       <c r="R4" s="1">
-        <v>957.467000</v>
+        <v>957.46699999999998</v>
       </c>
       <c r="S4" s="1">
-        <v>-105.205000</v>
+        <v>-105.205</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>84831.661294</v>
+        <v>84831.661294000005</v>
       </c>
       <c r="V4" s="1">
-        <v>23.564350</v>
+        <v>23.564350000000001</v>
       </c>
       <c r="W4" s="1">
-        <v>964.381000</v>
+        <v>964.38099999999997</v>
       </c>
       <c r="X4" s="1">
-        <v>-90.005100</v>
+        <v>-90.005099999999999</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>84842.134318</v>
+        <v>84842.134317999997</v>
       </c>
       <c r="AA4" s="1">
-        <v>23.567260</v>
+        <v>23.567260000000001</v>
       </c>
       <c r="AB4" s="1">
-        <v>971.913000</v>
+        <v>971.91300000000001</v>
       </c>
       <c r="AC4" s="1">
-        <v>-77.996000</v>
+        <v>-77.995999999999995</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>84852.681745</v>
+        <v>84852.681744999994</v>
       </c>
       <c r="AF4" s="1">
-        <v>23.570189</v>
+        <v>23.570188999999999</v>
       </c>
       <c r="AG4" s="1">
-        <v>976.741000</v>
+        <v>976.74099999999999</v>
       </c>
       <c r="AH4" s="1">
-        <v>-75.513900</v>
+        <v>-75.513900000000007</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
         <v>84863.070947</v>
       </c>
       <c r="AK4" s="1">
-        <v>23.573075</v>
+        <v>23.573074999999999</v>
       </c>
       <c r="AL4" s="1">
-        <v>984.108000</v>
+        <v>984.10799999999995</v>
       </c>
       <c r="AM4" s="1">
-        <v>-79.857600</v>
+        <v>-79.857600000000005</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>84873.664005</v>
+        <v>84873.664004999999</v>
       </c>
       <c r="AP4" s="1">
-        <v>23.576018</v>
+        <v>23.576018000000001</v>
       </c>
       <c r="AQ4" s="1">
-        <v>992.292000</v>
+        <v>992.29200000000003</v>
       </c>
       <c r="AR4" s="1">
-        <v>-91.123200</v>
+        <v>-91.123199999999997</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>84885.038293</v>
+        <v>84885.038293000005</v>
       </c>
       <c r="AU4" s="1">
-        <v>23.579177</v>
+        <v>23.579177000000001</v>
       </c>
       <c r="AV4" s="1">
-        <v>1002.170000</v>
+        <v>1002.17</v>
       </c>
       <c r="AW4" s="1">
-        <v>-108.452000</v>
+        <v>-108.452</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>84896.171959</v>
+        <v>84896.171958999999</v>
       </c>
       <c r="AZ4" s="1">
-        <v>23.582270</v>
+        <v>23.582270000000001</v>
       </c>
       <c r="BA4" s="1">
-        <v>1010.470000</v>
+        <v>1010.47</v>
       </c>
       <c r="BB4" s="1">
-        <v>-123.888000</v>
+        <v>-123.88800000000001</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>84907.135567</v>
+        <v>84907.135567000005</v>
       </c>
       <c r="BE4" s="1">
-        <v>23.585315</v>
+        <v>23.585315000000001</v>
       </c>
       <c r="BF4" s="1">
-        <v>1049.250000</v>
+        <v>1049.25</v>
       </c>
       <c r="BG4" s="1">
-        <v>-194.848000</v>
+        <v>-194.84800000000001</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>84917.795382</v>
+        <v>84917.795381999997</v>
       </c>
       <c r="BJ4" s="1">
         <v>23.588276</v>
       </c>
       <c r="BK4" s="1">
-        <v>1116.250000</v>
+        <v>1116.25</v>
       </c>
       <c r="BL4" s="1">
-        <v>-309.419000</v>
+        <v>-309.41899999999998</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>84929.294796</v>
+        <v>84929.294796000002</v>
       </c>
       <c r="BO4" s="1">
-        <v>23.591471</v>
+        <v>23.591470999999999</v>
       </c>
       <c r="BP4" s="1">
-        <v>1224.510000</v>
+        <v>1224.51</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-488.771000</v>
+        <v>-488.77100000000002</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>84940.892258</v>
+        <v>84940.892258000007</v>
       </c>
       <c r="BT4" s="1">
-        <v>23.594692</v>
+        <v>23.594691999999998</v>
       </c>
       <c r="BU4" s="1">
-        <v>1345.390000</v>
+        <v>1345.39</v>
       </c>
       <c r="BV4" s="1">
-        <v>-684.647000</v>
+        <v>-684.64700000000005</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>84951.702589</v>
+        <v>84951.702588999993</v>
       </c>
       <c r="BY4" s="1">
-        <v>23.597695</v>
+        <v>23.597695000000002</v>
       </c>
       <c r="BZ4" s="1">
-        <v>1480.030000</v>
+        <v>1480.03</v>
       </c>
       <c r="CA4" s="1">
-        <v>-892.130000</v>
+        <v>-892.13</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>84962.778719</v>
+        <v>84962.778718999994</v>
       </c>
       <c r="CD4" s="1">
-        <v>23.600772</v>
+        <v>23.600771999999999</v>
       </c>
       <c r="CE4" s="1">
-        <v>1829.270000</v>
+        <v>1829.27</v>
       </c>
       <c r="CF4" s="1">
-        <v>-1382.940000</v>
+        <v>-1382.94</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>84789.818788</v>
+        <v>84789.818788000004</v>
       </c>
       <c r="B5" s="1">
-        <v>23.552727</v>
+        <v>23.552727000000001</v>
       </c>
       <c r="C5" s="1">
-        <v>908.506000</v>
+        <v>908.50599999999997</v>
       </c>
       <c r="D5" s="1">
-        <v>-201.854000</v>
+        <v>-201.85400000000001</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>84800.139542</v>
+        <v>84800.139542000004</v>
       </c>
       <c r="G5" s="1">
-        <v>23.555594</v>
+        <v>23.555593999999999</v>
       </c>
       <c r="H5" s="1">
-        <v>926.507000</v>
+        <v>926.50699999999995</v>
       </c>
       <c r="I5" s="1">
-        <v>-171.048000</v>
+        <v>-171.048</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>84810.928521</v>
+        <v>84810.928520999994</v>
       </c>
       <c r="L5" s="1">
         <v>23.558591</v>
       </c>
       <c r="M5" s="1">
-        <v>950.445000</v>
+        <v>950.44500000000005</v>
       </c>
       <c r="N5" s="1">
-        <v>-121.828000</v>
+        <v>-121.828</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>84821.443210</v>
+        <v>84821.443209999998</v>
       </c>
       <c r="Q5" s="1">
         <v>23.561512</v>
       </c>
       <c r="R5" s="1">
-        <v>957.488000</v>
+        <v>957.48800000000006</v>
       </c>
       <c r="S5" s="1">
-        <v>-105.203000</v>
+        <v>-105.203</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>84832.004028</v>
+        <v>84832.004027999996</v>
       </c>
       <c r="V5" s="1">
         <v>23.564446</v>
       </c>
       <c r="W5" s="1">
-        <v>964.262000</v>
+        <v>964.26199999999994</v>
       </c>
       <c r="X5" s="1">
-        <v>-89.829100</v>
+        <v>-89.829099999999997</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>84842.486974</v>
+        <v>84842.486973999999</v>
       </c>
       <c r="AA5" s="1">
-        <v>23.567357</v>
+        <v>23.567357000000001</v>
       </c>
       <c r="AB5" s="1">
-        <v>971.820000</v>
+        <v>971.82</v>
       </c>
       <c r="AC5" s="1">
-        <v>-77.943500</v>
+        <v>-77.9435</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>84853.024976</v>
+        <v>84853.024976000001</v>
       </c>
       <c r="AF5" s="1">
-        <v>23.570285</v>
+        <v>23.570284999999998</v>
       </c>
       <c r="AG5" s="1">
-        <v>976.751000</v>
+        <v>976.75099999999998</v>
       </c>
       <c r="AH5" s="1">
-        <v>-75.474500</v>
+        <v>-75.474500000000006</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>84863.732642</v>
+        <v>84863.732642000003</v>
       </c>
       <c r="AK5" s="1">
         <v>23.573259</v>
       </c>
       <c r="AL5" s="1">
-        <v>984.137000</v>
+        <v>984.13699999999994</v>
       </c>
       <c r="AM5" s="1">
-        <v>-79.844600</v>
+        <v>-79.8446</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>84874.346004</v>
+        <v>84874.346004000006</v>
       </c>
       <c r="AP5" s="1">
         <v>23.576207</v>
       </c>
       <c r="AQ5" s="1">
-        <v>992.307000</v>
+        <v>992.30700000000002</v>
       </c>
       <c r="AR5" s="1">
-        <v>-91.116400</v>
+        <v>-91.116399999999999</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>84885.437541</v>
+        <v>84885.437541000007</v>
       </c>
       <c r="AU5" s="1">
-        <v>23.579288</v>
+        <v>23.579287999999998</v>
       </c>
       <c r="AV5" s="1">
-        <v>1002.180000</v>
+        <v>1002.18</v>
       </c>
       <c r="AW5" s="1">
-        <v>-108.453000</v>
+        <v>-108.453</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>84896.476007</v>
+        <v>84896.476007000005</v>
       </c>
       <c r="AZ5" s="1">
-        <v>23.582354</v>
+        <v>23.582353999999999</v>
       </c>
       <c r="BA5" s="1">
-        <v>1010.460000</v>
+        <v>1010.46</v>
       </c>
       <c r="BB5" s="1">
-        <v>-123.894000</v>
+        <v>-123.89400000000001</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>84907.498118</v>
+        <v>84907.498118000003</v>
       </c>
       <c r="BE5" s="1">
-        <v>23.585416</v>
+        <v>23.585415999999999</v>
       </c>
       <c r="BF5" s="1">
-        <v>1049.280000</v>
+        <v>1049.28</v>
       </c>
       <c r="BG5" s="1">
-        <v>-194.850000</v>
+        <v>-194.85</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>84918.171018</v>
+        <v>84918.171017999994</v>
       </c>
       <c r="BJ5" s="1">
-        <v>23.588381</v>
+        <v>23.588380999999998</v>
       </c>
       <c r="BK5" s="1">
-        <v>1116.250000</v>
+        <v>1116.25</v>
       </c>
       <c r="BL5" s="1">
-        <v>-309.427000</v>
+        <v>-309.42700000000002</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>84929.692091</v>
+        <v>84929.692091000004</v>
       </c>
       <c r="BO5" s="1">
-        <v>23.591581</v>
+        <v>23.591581000000001</v>
       </c>
       <c r="BP5" s="1">
-        <v>1224.500000</v>
+        <v>1224.5</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-488.790000</v>
+        <v>-488.79</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>84941.320331</v>
+        <v>84941.320330999995</v>
       </c>
       <c r="BT5" s="1">
         <v>23.594811</v>
       </c>
       <c r="BU5" s="1">
-        <v>1345.370000</v>
+        <v>1345.37</v>
       </c>
       <c r="BV5" s="1">
-        <v>-684.753000</v>
+        <v>-684.75300000000004</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>84952.192471</v>
+        <v>84952.192471000002</v>
       </c>
       <c r="BY5" s="1">
-        <v>23.597831</v>
+        <v>23.597830999999999</v>
       </c>
       <c r="BZ5" s="1">
-        <v>1480.120000</v>
+        <v>1480.12</v>
       </c>
       <c r="CA5" s="1">
-        <v>-892.160000</v>
+        <v>-892.16</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>84963.295550</v>
+        <v>84963.295549999995</v>
       </c>
       <c r="CD5" s="1">
-        <v>23.600915</v>
+        <v>23.600915000000001</v>
       </c>
       <c r="CE5" s="1">
-        <v>1828.190000</v>
+        <v>1828.19</v>
       </c>
       <c r="CF5" s="1">
-        <v>-1383.690000</v>
+        <v>-1383.69</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
         <v>84790.159539</v>
       </c>
       <c r="B6" s="1">
-        <v>23.552822</v>
+        <v>23.552821999999999</v>
       </c>
       <c r="C6" s="1">
-        <v>908.366000</v>
+        <v>908.36599999999999</v>
       </c>
       <c r="D6" s="1">
-        <v>-201.962000</v>
+        <v>-201.96199999999999</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>84800.827992</v>
+        <v>84800.827992000006</v>
       </c>
       <c r="G6" s="1">
-        <v>23.555786</v>
+        <v>23.555786000000001</v>
       </c>
       <c r="H6" s="1">
-        <v>926.592000</v>
+        <v>926.59199999999998</v>
       </c>
       <c r="I6" s="1">
-        <v>-171.422000</v>
+        <v>-171.422</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>84811.273272</v>
+        <v>84811.273272000006</v>
       </c>
       <c r="L6" s="1">
-        <v>23.558687</v>
+        <v>23.558686999999999</v>
       </c>
       <c r="M6" s="1">
-        <v>950.426000</v>
+        <v>950.42600000000004</v>
       </c>
       <c r="N6" s="1">
-        <v>-121.730000</v>
+        <v>-121.73</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>84821.789915</v>
+        <v>84821.789915000001</v>
       </c>
       <c r="Q6" s="1">
         <v>23.561608</v>
       </c>
       <c r="R6" s="1">
-        <v>957.484000</v>
+        <v>957.48400000000004</v>
       </c>
       <c r="S6" s="1">
-        <v>-105.244000</v>
+        <v>-105.244</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>84832.348251</v>
+        <v>84832.348251000003</v>
       </c>
       <c r="V6" s="1">
-        <v>23.564541</v>
+        <v>23.564540999999998</v>
       </c>
       <c r="W6" s="1">
-        <v>964.414000</v>
+        <v>964.41399999999999</v>
       </c>
       <c r="X6" s="1">
-        <v>-89.904900</v>
+        <v>-89.904899999999998</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>84842.837150</v>
+        <v>84842.837150000007</v>
       </c>
       <c r="AA6" s="1">
-        <v>23.567455</v>
+        <v>23.567454999999999</v>
       </c>
       <c r="AB6" s="1">
-        <v>971.875000</v>
+        <v>971.875</v>
       </c>
       <c r="AC6" s="1">
-        <v>-77.963000</v>
+        <v>-77.962999999999994</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>84853.690639</v>
+        <v>84853.690638999993</v>
       </c>
       <c r="AF6" s="1">
-        <v>23.570470</v>
+        <v>23.57047</v>
       </c>
       <c r="AG6" s="1">
-        <v>976.744000</v>
+        <v>976.74400000000003</v>
       </c>
       <c r="AH6" s="1">
-        <v>-75.532400</v>
+        <v>-75.532399999999996</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>84864.117009</v>
+        <v>84864.117008999994</v>
       </c>
       <c r="AK6" s="1">
         <v>23.573366</v>
       </c>
       <c r="AL6" s="1">
-        <v>984.120000</v>
+        <v>984.12</v>
       </c>
       <c r="AM6" s="1">
-        <v>-79.857500</v>
+        <v>-79.857500000000002</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>84874.743331</v>
+        <v>84874.743331000005</v>
       </c>
       <c r="AP6" s="1">
-        <v>23.576318</v>
+        <v>23.576318000000001</v>
       </c>
       <c r="AQ6" s="1">
-        <v>992.290000</v>
+        <v>992.29</v>
       </c>
       <c r="AR6" s="1">
-        <v>-91.108800</v>
+        <v>-91.108800000000002</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>84885.801604</v>
+        <v>84885.801603999993</v>
       </c>
       <c r="AU6" s="1">
-        <v>23.579389</v>
+        <v>23.579388999999999</v>
       </c>
       <c r="AV6" s="1">
-        <v>1002.170000</v>
+        <v>1002.17</v>
       </c>
       <c r="AW6" s="1">
-        <v>-108.441000</v>
+        <v>-108.441</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>84896.845526</v>
+        <v>84896.845526000005</v>
       </c>
       <c r="AZ6" s="1">
-        <v>23.582457</v>
+        <v>23.582457000000002</v>
       </c>
       <c r="BA6" s="1">
-        <v>1010.460000</v>
+        <v>1010.46</v>
       </c>
       <c r="BB6" s="1">
-        <v>-123.876000</v>
+        <v>-123.876</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>84907.858696</v>
+        <v>84907.858695999996</v>
       </c>
       <c r="BE6" s="1">
-        <v>23.585516</v>
+        <v>23.585515999999998</v>
       </c>
       <c r="BF6" s="1">
-        <v>1049.270000</v>
+        <v>1049.27</v>
       </c>
       <c r="BG6" s="1">
-        <v>-194.858000</v>
+        <v>-194.858</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>84918.607499</v>
+        <v>84918.607499000005</v>
       </c>
       <c r="BJ6" s="1">
-        <v>23.588502</v>
+        <v>23.588501999999998</v>
       </c>
       <c r="BK6" s="1">
-        <v>1116.230000</v>
+        <v>1116.23</v>
       </c>
       <c r="BL6" s="1">
-        <v>-309.431000</v>
+        <v>-309.43099999999998</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>84930.114682</v>
+        <v>84930.114681999999</v>
       </c>
       <c r="BO6" s="1">
-        <v>23.591699</v>
+        <v>23.591698999999998</v>
       </c>
       <c r="BP6" s="1">
-        <v>1224.510000</v>
+        <v>1224.51</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-488.746000</v>
+        <v>-488.74599999999998</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>84941.732014</v>
+        <v>84941.732013999994</v>
       </c>
       <c r="BT6" s="1">
-        <v>23.594926</v>
+        <v>23.594926000000001</v>
       </c>
       <c r="BU6" s="1">
-        <v>1345.420000</v>
+        <v>1345.42</v>
       </c>
       <c r="BV6" s="1">
-        <v>-684.757000</v>
+        <v>-684.75699999999995</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>84952.555180</v>
+        <v>84952.555179999996</v>
       </c>
       <c r="BY6" s="1">
         <v>23.597932</v>
       </c>
       <c r="BZ6" s="1">
-        <v>1479.930000</v>
+        <v>1479.93</v>
       </c>
       <c r="CA6" s="1">
-        <v>-892.248000</v>
+        <v>-892.24800000000005</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>84963.813870</v>
+        <v>84963.813869999998</v>
       </c>
       <c r="CD6" s="1">
-        <v>23.601059</v>
+        <v>23.601058999999999</v>
       </c>
       <c r="CE6" s="1">
-        <v>1829.040000</v>
+        <v>1829.04</v>
       </c>
       <c r="CF6" s="1">
-        <v>-1384.580000</v>
+        <v>-1384.58</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>84790.844050</v>
+        <v>84790.84405</v>
       </c>
       <c r="B7" s="1">
-        <v>23.553012</v>
+        <v>23.553011999999999</v>
       </c>
       <c r="C7" s="1">
-        <v>908.229000</v>
+        <v>908.22900000000004</v>
       </c>
       <c r="D7" s="1">
-        <v>-201.920000</v>
+        <v>-201.92</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>84801.173204</v>
+        <v>84801.173204000006</v>
       </c>
       <c r="G7" s="1">
-        <v>23.555881</v>
+        <v>23.555880999999999</v>
       </c>
       <c r="H7" s="1">
-        <v>926.599000</v>
+        <v>926.59900000000005</v>
       </c>
       <c r="I7" s="1">
-        <v>-171.017000</v>
+        <v>-171.017</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>84811.618455</v>
+        <v>84811.618455000003</v>
       </c>
       <c r="L7" s="1">
-        <v>23.558783</v>
+        <v>23.558782999999998</v>
       </c>
       <c r="M7" s="1">
-        <v>950.467000</v>
+        <v>950.46699999999998</v>
       </c>
       <c r="N7" s="1">
-        <v>-121.772000</v>
+        <v>-121.77200000000001</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>84822.140617</v>
+        <v>84822.140616999997</v>
       </c>
       <c r="Q7" s="1">
-        <v>23.561706</v>
+        <v>23.561706000000001</v>
       </c>
       <c r="R7" s="1">
-        <v>957.483000</v>
+        <v>957.48299999999995</v>
       </c>
       <c r="S7" s="1">
-        <v>-105.268000</v>
+        <v>-105.268</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>84833.006940</v>
+        <v>84833.006940000007</v>
       </c>
       <c r="V7" s="1">
-        <v>23.564724</v>
+        <v>23.564723999999998</v>
       </c>
       <c r="W7" s="1">
-        <v>964.360000</v>
+        <v>964.36</v>
       </c>
       <c r="X7" s="1">
-        <v>-89.872300</v>
+        <v>-89.872299999999996</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>84843.575692</v>
+        <v>84843.575691999999</v>
       </c>
       <c r="AA7" s="1">
-        <v>23.567660</v>
+        <v>23.56766</v>
       </c>
       <c r="AB7" s="1">
-        <v>971.871000</v>
+        <v>971.87099999999998</v>
       </c>
       <c r="AC7" s="1">
-        <v>-77.939700</v>
+        <v>-77.939700000000002</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>84854.065088</v>
+        <v>84854.065088000003</v>
       </c>
       <c r="AF7" s="1">
-        <v>23.570574</v>
+        <v>23.570574000000001</v>
       </c>
       <c r="AG7" s="1">
-        <v>976.773000</v>
+        <v>976.77300000000002</v>
       </c>
       <c r="AH7" s="1">
-        <v>-75.547500</v>
+        <v>-75.547499999999999</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>84864.468673</v>
+        <v>84864.468672999996</v>
       </c>
       <c r="AK7" s="1">
-        <v>23.573464</v>
+        <v>23.573464000000001</v>
       </c>
       <c r="AL7" s="1">
-        <v>984.152000</v>
+        <v>984.15200000000004</v>
       </c>
       <c r="AM7" s="1">
-        <v>-79.872500</v>
+        <v>-79.872500000000002</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>84875.132660</v>
+        <v>84875.132660000003</v>
       </c>
       <c r="AP7" s="1">
-        <v>23.576426</v>
+        <v>23.576426000000001</v>
       </c>
       <c r="AQ7" s="1">
-        <v>992.301000</v>
+        <v>992.30100000000004</v>
       </c>
       <c r="AR7" s="1">
-        <v>-91.147200</v>
+        <v>-91.147199999999998</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>84886.164987</v>
+        <v>84886.164986999996</v>
       </c>
       <c r="AU7" s="1">
-        <v>23.579490</v>
+        <v>23.57949</v>
       </c>
       <c r="AV7" s="1">
-        <v>1002.170000</v>
+        <v>1002.17</v>
       </c>
       <c r="AW7" s="1">
-        <v>-108.425000</v>
+        <v>-108.425</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>84897.272087</v>
+        <v>84897.272087000005</v>
       </c>
       <c r="AZ7" s="1">
         <v>23.582576</v>
       </c>
       <c r="BA7" s="1">
-        <v>1010.460000</v>
+        <v>1010.46</v>
       </c>
       <c r="BB7" s="1">
-        <v>-123.905000</v>
+        <v>-123.905</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
-        <v>84908.298151</v>
+        <v>84908.298150999995</v>
       </c>
       <c r="BE7" s="1">
-        <v>23.585638</v>
+        <v>23.585637999999999</v>
       </c>
       <c r="BF7" s="1">
-        <v>1049.260000</v>
+        <v>1049.26</v>
       </c>
       <c r="BG7" s="1">
-        <v>-194.833000</v>
+        <v>-194.833</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>84918.921465</v>
+        <v>84918.921465000007</v>
       </c>
       <c r="BJ7" s="1">
-        <v>23.588589</v>
+        <v>23.588588999999999</v>
       </c>
       <c r="BK7" s="1">
-        <v>1116.240000</v>
+        <v>1116.24</v>
       </c>
       <c r="BL7" s="1">
-        <v>-309.435000</v>
+        <v>-309.435</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>84930.514501</v>
+        <v>84930.514500999998</v>
       </c>
       <c r="BO7" s="1">
-        <v>23.591810</v>
+        <v>23.591809999999999</v>
       </c>
       <c r="BP7" s="1">
-        <v>1224.500000</v>
+        <v>1224.5</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-488.805000</v>
+        <v>-488.80500000000001</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>84942.164986</v>
+        <v>84942.164986000003</v>
       </c>
       <c r="BT7" s="1">
         <v>23.595046</v>
       </c>
       <c r="BU7" s="1">
-        <v>1345.540000</v>
+        <v>1345.54</v>
       </c>
       <c r="BV7" s="1">
-        <v>-684.755000</v>
+        <v>-684.755</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>84952.968845</v>
+        <v>84952.968844999996</v>
       </c>
       <c r="BY7" s="1">
-        <v>23.598047</v>
+        <v>23.598047000000001</v>
       </c>
       <c r="BZ7" s="1">
-        <v>1479.990000</v>
+        <v>1479.99</v>
       </c>
       <c r="CA7" s="1">
-        <v>-892.106000</v>
+        <v>-892.10599999999999</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
         <v>84964.331693</v>
       </c>
       <c r="CD7" s="1">
-        <v>23.601203</v>
+        <v>23.601203000000002</v>
       </c>
       <c r="CE7" s="1">
-        <v>1829.760000</v>
+        <v>1829.76</v>
       </c>
       <c r="CF7" s="1">
-        <v>-1383.730000</v>
+        <v>-1383.73</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>84791.186786</v>
+        <v>84791.186786000006</v>
       </c>
       <c r="B8" s="1">
-        <v>23.553107</v>
+        <v>23.553107000000001</v>
       </c>
       <c r="C8" s="1">
-        <v>908.157000</v>
+        <v>908.15700000000004</v>
       </c>
       <c r="D8" s="1">
-        <v>-201.805000</v>
+        <v>-201.80500000000001</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
         <v>84801.521901</v>
@@ -2038,103 +2454,103 @@
         <v>23.555978</v>
       </c>
       <c r="H8" s="1">
-        <v>926.533000</v>
+        <v>926.53300000000002</v>
       </c>
       <c r="I8" s="1">
-        <v>-171.256000</v>
+        <v>-171.256</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>84812.286069</v>
+        <v>84812.286068999994</v>
       </c>
       <c r="L8" s="1">
         <v>23.558968</v>
       </c>
       <c r="M8" s="1">
-        <v>950.489000</v>
+        <v>950.48900000000003</v>
       </c>
       <c r="N8" s="1">
-        <v>-121.675000</v>
+        <v>-121.675</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>84822.810680</v>
+        <v>84822.810679999995</v>
       </c>
       <c r="Q8" s="1">
         <v>23.561892</v>
       </c>
       <c r="R8" s="1">
-        <v>957.457000</v>
+        <v>957.45699999999999</v>
       </c>
       <c r="S8" s="1">
-        <v>-105.207000</v>
+        <v>-105.20699999999999</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>84833.377451</v>
+        <v>84833.377450999993</v>
       </c>
       <c r="V8" s="1">
-        <v>23.564827</v>
+        <v>23.564827000000001</v>
       </c>
       <c r="W8" s="1">
-        <v>964.247000</v>
+        <v>964.24699999999996</v>
       </c>
       <c r="X8" s="1">
-        <v>-89.917400</v>
+        <v>-89.917400000000001</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>84843.880236</v>
+        <v>84843.880235999997</v>
       </c>
       <c r="AA8" s="1">
-        <v>23.567745</v>
+        <v>23.567744999999999</v>
       </c>
       <c r="AB8" s="1">
-        <v>971.848000</v>
+        <v>971.84799999999996</v>
       </c>
       <c r="AC8" s="1">
-        <v>-77.861800</v>
+        <v>-77.861800000000002</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>84854.409310</v>
+        <v>84854.409310000003</v>
       </c>
       <c r="AF8" s="1">
-        <v>23.570669</v>
+        <v>23.570668999999999</v>
       </c>
       <c r="AG8" s="1">
-        <v>976.713000</v>
+        <v>976.71299999999997</v>
       </c>
       <c r="AH8" s="1">
-        <v>-75.546900</v>
+        <v>-75.546899999999994</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>84864.817856</v>
+        <v>84864.817855999994</v>
       </c>
       <c r="AK8" s="1">
-        <v>23.573561</v>
+        <v>23.573561000000002</v>
       </c>
       <c r="AL8" s="1">
-        <v>984.136000</v>
+        <v>984.13599999999997</v>
       </c>
       <c r="AM8" s="1">
-        <v>-79.861500</v>
+        <v>-79.861500000000007</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
         <v>84875.490779</v>
@@ -2143,103 +2559,103 @@
         <v>23.576525</v>
       </c>
       <c r="AQ8" s="1">
-        <v>992.288000</v>
+        <v>992.28800000000001</v>
       </c>
       <c r="AR8" s="1">
-        <v>-91.123400</v>
+        <v>-91.123400000000004</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
         <v>84886.597188</v>
       </c>
       <c r="AU8" s="1">
-        <v>23.579610</v>
+        <v>23.579609999999999</v>
       </c>
       <c r="AV8" s="1">
-        <v>1002.180000</v>
+        <v>1002.18</v>
       </c>
       <c r="AW8" s="1">
-        <v>-108.455000</v>
+        <v>-108.455</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>84897.560768</v>
+        <v>84897.560767999996</v>
       </c>
       <c r="AZ8" s="1">
         <v>23.582656</v>
       </c>
       <c r="BA8" s="1">
-        <v>1010.460000</v>
+        <v>1010.46</v>
       </c>
       <c r="BB8" s="1">
-        <v>-123.908000</v>
+        <v>-123.908</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>84908.581901</v>
+        <v>84908.581900999998</v>
       </c>
       <c r="BE8" s="1">
-        <v>23.585717</v>
+        <v>23.585716999999999</v>
       </c>
       <c r="BF8" s="1">
-        <v>1049.270000</v>
+        <v>1049.27</v>
       </c>
       <c r="BG8" s="1">
-        <v>-194.854000</v>
+        <v>-194.85400000000001</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>84919.319256</v>
+        <v>84919.319256000002</v>
       </c>
       <c r="BJ8" s="1">
-        <v>23.588700</v>
+        <v>23.588699999999999</v>
       </c>
       <c r="BK8" s="1">
-        <v>1116.220000</v>
+        <v>1116.22</v>
       </c>
       <c r="BL8" s="1">
-        <v>-309.425000</v>
+        <v>-309.42500000000001</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>84930.935563</v>
+        <v>84930.935563000006</v>
       </c>
       <c r="BO8" s="1">
-        <v>23.591927</v>
+        <v>23.591926999999998</v>
       </c>
       <c r="BP8" s="1">
-        <v>1224.560000</v>
+        <v>1224.56</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-488.761000</v>
+        <v>-488.76100000000002</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
-        <v>84942.591547</v>
+        <v>84942.591547000004</v>
       </c>
       <c r="BT8" s="1">
         <v>23.595164</v>
       </c>
       <c r="BU8" s="1">
-        <v>1345.510000</v>
+        <v>1345.51</v>
       </c>
       <c r="BV8" s="1">
-        <v>-684.719000</v>
+        <v>-684.71900000000005</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
         <v>84953.425164</v>
@@ -2248,4656 +2664,4657 @@
         <v>23.598174</v>
       </c>
       <c r="BZ8" s="1">
-        <v>1480.020000</v>
+        <v>1480.02</v>
       </c>
       <c r="CA8" s="1">
-        <v>-892.135000</v>
+        <v>-892.13499999999999</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>84964.850012</v>
+        <v>84964.850011999995</v>
       </c>
       <c r="CD8" s="1">
-        <v>23.601347</v>
+        <v>23.601347000000001</v>
       </c>
       <c r="CE8" s="1">
-        <v>1828.660000</v>
+        <v>1828.66</v>
       </c>
       <c r="CF8" s="1">
-        <v>-1383.120000</v>
+        <v>-1383.12</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>84792.071617</v>
+        <v>84792.071616999994</v>
       </c>
       <c r="B9" s="1">
-        <v>23.553353</v>
+        <v>23.553353000000001</v>
       </c>
       <c r="C9" s="1">
-        <v>908.316000</v>
+        <v>908.31600000000003</v>
       </c>
       <c r="D9" s="1">
-        <v>-201.956000</v>
+        <v>-201.95599999999999</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>84802.176147</v>
+        <v>84802.176147000006</v>
       </c>
       <c r="G9" s="1">
-        <v>23.556160</v>
+        <v>23.556159999999998</v>
       </c>
       <c r="H9" s="1">
-        <v>926.699000</v>
+        <v>926.69899999999996</v>
       </c>
       <c r="I9" s="1">
-        <v>-170.647000</v>
+        <v>-170.64699999999999</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>84812.656086</v>
+        <v>84812.656086000003</v>
       </c>
       <c r="L9" s="1">
-        <v>23.559071</v>
+        <v>23.559070999999999</v>
       </c>
       <c r="M9" s="1">
-        <v>950.458000</v>
+        <v>950.45799999999997</v>
       </c>
       <c r="N9" s="1">
-        <v>-121.679000</v>
+        <v>-121.679</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>84823.187200</v>
+        <v>84823.1872</v>
       </c>
       <c r="Q9" s="1">
-        <v>23.561996</v>
+        <v>23.561996000000001</v>
       </c>
       <c r="R9" s="1">
-        <v>957.447000</v>
+        <v>957.447</v>
       </c>
       <c r="S9" s="1">
-        <v>-105.215000</v>
+        <v>-105.215</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>84833.723658</v>
+        <v>84833.723658000003</v>
       </c>
       <c r="V9" s="1">
         <v>23.564923</v>
       </c>
       <c r="W9" s="1">
-        <v>964.353000</v>
+        <v>964.35299999999995</v>
       </c>
       <c r="X9" s="1">
-        <v>-89.906100</v>
+        <v>-89.906099999999995</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>84844.231404</v>
+        <v>84844.231404000006</v>
       </c>
       <c r="AA9" s="1">
-        <v>23.567842</v>
+        <v>23.567841999999999</v>
       </c>
       <c r="AB9" s="1">
-        <v>971.838000</v>
+        <v>971.83799999999997</v>
       </c>
       <c r="AC9" s="1">
-        <v>-77.860800</v>
+        <v>-77.860799999999998</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>84854.751550</v>
+        <v>84854.751550000001</v>
       </c>
       <c r="AF9" s="1">
         <v>23.570764</v>
       </c>
       <c r="AG9" s="1">
-        <v>976.732000</v>
+        <v>976.73199999999997</v>
       </c>
       <c r="AH9" s="1">
-        <v>-75.475400</v>
+        <v>-75.475399999999993</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>84865.240944</v>
+        <v>84865.240944000005</v>
       </c>
       <c r="AK9" s="1">
-        <v>23.573678</v>
+        <v>23.573678000000001</v>
       </c>
       <c r="AL9" s="1">
-        <v>984.120000</v>
+        <v>984.12</v>
       </c>
       <c r="AM9" s="1">
-        <v>-79.857100</v>
+        <v>-79.857100000000003</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>84875.922786</v>
+        <v>84875.922785999996</v>
       </c>
       <c r="AP9" s="1">
-        <v>23.576645</v>
+        <v>23.576644999999999</v>
       </c>
       <c r="AQ9" s="1">
-        <v>992.280000</v>
+        <v>992.28</v>
       </c>
       <c r="AR9" s="1">
-        <v>-91.102500</v>
+        <v>-91.102500000000006</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>84886.895781</v>
+        <v>84886.895780999999</v>
       </c>
       <c r="AU9" s="1">
-        <v>23.579693</v>
+        <v>23.579692999999999</v>
       </c>
       <c r="AV9" s="1">
-        <v>1002.180000</v>
+        <v>1002.18</v>
       </c>
       <c r="AW9" s="1">
-        <v>-108.439000</v>
+        <v>-108.43899999999999</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>84897.919903</v>
+        <v>84897.919903000002</v>
       </c>
       <c r="AZ9" s="1">
         <v>23.582756</v>
       </c>
       <c r="BA9" s="1">
-        <v>1010.480000</v>
+        <v>1010.48</v>
       </c>
       <c r="BB9" s="1">
-        <v>-123.894000</v>
+        <v>-123.89400000000001</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <v>84908.943942</v>
+        <v>84908.943941999998</v>
       </c>
       <c r="BE9" s="1">
         <v>23.585818</v>
       </c>
       <c r="BF9" s="1">
-        <v>1049.260000</v>
+        <v>1049.26</v>
       </c>
       <c r="BG9" s="1">
-        <v>-194.845000</v>
+        <v>-194.845</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>84919.695284</v>
+        <v>84919.695284000001</v>
       </c>
       <c r="BJ9" s="1">
         <v>23.588804</v>
       </c>
       <c r="BK9" s="1">
-        <v>1116.240000</v>
+        <v>1116.24</v>
       </c>
       <c r="BL9" s="1">
-        <v>-309.435000</v>
+        <v>-309.435</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>84931.332869</v>
+        <v>84931.332869000005</v>
       </c>
       <c r="BO9" s="1">
-        <v>23.592037</v>
+        <v>23.592037000000001</v>
       </c>
       <c r="BP9" s="1">
-        <v>1224.520000</v>
+        <v>1224.52</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-488.789000</v>
+        <v>-488.78899999999999</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
-        <v>84943.020089</v>
+        <v>84943.020088999998</v>
       </c>
       <c r="BT9" s="1">
-        <v>23.595283</v>
+        <v>23.595282999999998</v>
       </c>
       <c r="BU9" s="1">
-        <v>1345.560000</v>
+        <v>1345.56</v>
       </c>
       <c r="BV9" s="1">
-        <v>-684.798000</v>
+        <v>-684.798</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>84953.873083</v>
+        <v>84953.873082999999</v>
       </c>
       <c r="BY9" s="1">
         <v>23.598298</v>
       </c>
       <c r="BZ9" s="1">
-        <v>1480.030000</v>
+        <v>1480.03</v>
       </c>
       <c r="CA9" s="1">
-        <v>-892.318000</v>
+        <v>-892.31799999999998</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>84965.368364</v>
+        <v>84965.368363999994</v>
       </c>
       <c r="CD9" s="1">
-        <v>23.601491</v>
+        <v>23.601490999999999</v>
       </c>
       <c r="CE9" s="1">
-        <v>1828.940000</v>
+        <v>1828.94</v>
       </c>
       <c r="CF9" s="1">
-        <v>-1383.070000</v>
+        <v>-1383.07</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>84792.430720</v>
+        <v>84792.430720000004</v>
       </c>
       <c r="B10" s="1">
-        <v>23.553453</v>
+        <v>23.553453000000001</v>
       </c>
       <c r="C10" s="1">
-        <v>908.431000</v>
+        <v>908.43100000000004</v>
       </c>
       <c r="D10" s="1">
-        <v>-201.812000</v>
+        <v>-201.81200000000001</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>84802.554563</v>
+        <v>84802.554562999998</v>
       </c>
       <c r="G10" s="1">
         <v>23.556265</v>
       </c>
       <c r="H10" s="1">
-        <v>926.578000</v>
+        <v>926.57799999999997</v>
       </c>
       <c r="I10" s="1">
-        <v>-170.948000</v>
+        <v>-170.94800000000001</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>84813.000804</v>
+        <v>84813.000803999996</v>
       </c>
       <c r="L10" s="1">
-        <v>23.559167</v>
+        <v>23.559166999999999</v>
       </c>
       <c r="M10" s="1">
-        <v>950.428000</v>
+        <v>950.428</v>
       </c>
       <c r="N10" s="1">
-        <v>-121.838000</v>
+        <v>-121.83799999999999</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>84823.533351</v>
+        <v>84823.533351000005</v>
       </c>
       <c r="Q10" s="1">
-        <v>23.562093</v>
+        <v>23.562093000000001</v>
       </c>
       <c r="R10" s="1">
-        <v>957.477000</v>
+        <v>957.47699999999998</v>
       </c>
       <c r="S10" s="1">
-        <v>-105.169000</v>
+        <v>-105.169</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>84834.070857</v>
+        <v>84834.070856999999</v>
       </c>
       <c r="V10" s="1">
-        <v>23.565020</v>
+        <v>23.565020000000001</v>
       </c>
       <c r="W10" s="1">
-        <v>964.362000</v>
+        <v>964.36199999999997</v>
       </c>
       <c r="X10" s="1">
-        <v>-89.913100</v>
+        <v>-89.9131</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>84844.659947</v>
+        <v>84844.659946999993</v>
       </c>
       <c r="AA10" s="1">
         <v>23.567961</v>
       </c>
       <c r="AB10" s="1">
-        <v>971.942000</v>
+        <v>971.94200000000001</v>
       </c>
       <c r="AC10" s="1">
-        <v>-77.897100</v>
+        <v>-77.897099999999995</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>84855.179101</v>
+        <v>84855.179101000002</v>
       </c>
       <c r="AF10" s="1">
-        <v>23.570883</v>
+        <v>23.570882999999998</v>
       </c>
       <c r="AG10" s="1">
-        <v>976.764000</v>
+        <v>976.76400000000001</v>
       </c>
       <c r="AH10" s="1">
-        <v>-75.507100</v>
+        <v>-75.507099999999994</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>84865.520191</v>
+        <v>84865.520191000003</v>
       </c>
       <c r="AK10" s="1">
-        <v>23.573756</v>
+        <v>23.573755999999999</v>
       </c>
       <c r="AL10" s="1">
-        <v>984.126000</v>
+        <v>984.12599999999998</v>
       </c>
       <c r="AM10" s="1">
-        <v>-79.855600</v>
+        <v>-79.855599999999995</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>84876.212489</v>
+        <v>84876.212488999998</v>
       </c>
       <c r="AP10" s="1">
-        <v>23.576726</v>
+        <v>23.576726000000001</v>
       </c>
       <c r="AQ10" s="1">
-        <v>992.314000</v>
+        <v>992.31399999999996</v>
       </c>
       <c r="AR10" s="1">
-        <v>-91.108900</v>
+        <v>-91.108900000000006</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>84887.262819</v>
+        <v>84887.262818999996</v>
       </c>
       <c r="AU10" s="1">
-        <v>23.579795</v>
+        <v>23.579795000000001</v>
       </c>
       <c r="AV10" s="1">
-        <v>1002.170000</v>
+        <v>1002.17</v>
       </c>
       <c r="AW10" s="1">
-        <v>-108.443000</v>
+        <v>-108.443</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>84898.278470</v>
+        <v>84898.278470000005</v>
       </c>
       <c r="AZ10" s="1">
-        <v>23.582855</v>
+        <v>23.582854999999999</v>
       </c>
       <c r="BA10" s="1">
-        <v>1010.450000</v>
+        <v>1010.45</v>
       </c>
       <c r="BB10" s="1">
-        <v>-123.893000</v>
+        <v>-123.893</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
         <v>84909.302549</v>
       </c>
       <c r="BE10" s="1">
-        <v>23.585917</v>
+        <v>23.585916999999998</v>
       </c>
       <c r="BF10" s="1">
-        <v>1049.260000</v>
+        <v>1049.26</v>
       </c>
       <c r="BG10" s="1">
-        <v>-194.817000</v>
+        <v>-194.81700000000001</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
-        <v>84920.445175</v>
+        <v>84920.445175000001</v>
       </c>
       <c r="BJ10" s="1">
-        <v>23.589013</v>
+        <v>23.589013000000001</v>
       </c>
       <c r="BK10" s="1">
-        <v>1116.210000</v>
+        <v>1116.21</v>
       </c>
       <c r="BL10" s="1">
-        <v>-309.445000</v>
+        <v>-309.44499999999999</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>84932.148775</v>
+        <v>84932.148774999994</v>
       </c>
       <c r="BO10" s="1">
         <v>23.592264</v>
       </c>
       <c r="BP10" s="1">
-        <v>1224.540000</v>
+        <v>1224.54</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-488.763000</v>
+        <v>-488.76299999999998</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
         <v>84943.429785</v>
       </c>
       <c r="BT10" s="1">
-        <v>23.595397</v>
+        <v>23.595396999999998</v>
       </c>
       <c r="BU10" s="1">
-        <v>1345.640000</v>
+        <v>1345.64</v>
       </c>
       <c r="BV10" s="1">
-        <v>-684.767000</v>
+        <v>-684.76700000000005</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>84954.296138</v>
+        <v>84954.296138000005</v>
       </c>
       <c r="BY10" s="1">
         <v>23.598416</v>
       </c>
       <c r="BZ10" s="1">
-        <v>1480.050000</v>
+        <v>1480.05</v>
       </c>
       <c r="CA10" s="1">
-        <v>-892.224000</v>
+        <v>-892.22400000000005</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>84965.920379</v>
+        <v>84965.920379000003</v>
       </c>
       <c r="CD10" s="1">
-        <v>23.601645</v>
+        <v>23.601645000000001</v>
       </c>
       <c r="CE10" s="1">
-        <v>1829.510000</v>
+        <v>1829.51</v>
       </c>
       <c r="CF10" s="1">
-        <v>-1383.630000</v>
+        <v>-1383.63</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>84792.777459</v>
+        <v>84792.777459000004</v>
       </c>
       <c r="B11" s="1">
         <v>23.553549</v>
       </c>
       <c r="C11" s="1">
-        <v>908.281000</v>
+        <v>908.28099999999995</v>
       </c>
       <c r="D11" s="1">
-        <v>-201.863000</v>
+        <v>-201.863</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>84802.900306</v>
+        <v>84802.900305999996</v>
       </c>
       <c r="G11" s="1">
-        <v>23.556361</v>
+        <v>23.556360999999999</v>
       </c>
       <c r="H11" s="1">
-        <v>926.574000</v>
+        <v>926.57399999999996</v>
       </c>
       <c r="I11" s="1">
-        <v>-171.024000</v>
+        <v>-171.024</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>84813.348004</v>
+        <v>84813.348003999999</v>
       </c>
       <c r="L11" s="1">
-        <v>23.559263</v>
+        <v>23.559263000000001</v>
       </c>
       <c r="M11" s="1">
-        <v>950.447000</v>
+        <v>950.447</v>
       </c>
       <c r="N11" s="1">
-        <v>-121.742000</v>
+        <v>-121.742</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>84823.883030</v>
+        <v>84823.883029999997</v>
       </c>
       <c r="Q11" s="1">
-        <v>23.562190</v>
+        <v>23.562190000000001</v>
       </c>
       <c r="R11" s="1">
-        <v>957.463000</v>
+        <v>957.46299999999997</v>
       </c>
       <c r="S11" s="1">
-        <v>-105.245000</v>
+        <v>-105.245</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>84834.500920</v>
+        <v>84834.500920000006</v>
       </c>
       <c r="V11" s="1">
-        <v>23.565139</v>
+        <v>23.565138999999999</v>
       </c>
       <c r="W11" s="1">
-        <v>964.296000</v>
+        <v>964.29600000000005</v>
       </c>
       <c r="X11" s="1">
-        <v>-89.888600</v>
+        <v>-89.888599999999997</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>84844.927290</v>
+        <v>84844.927290000007</v>
       </c>
       <c r="AA11" s="1">
-        <v>23.568035</v>
+        <v>23.568034999999998</v>
       </c>
       <c r="AB11" s="1">
-        <v>971.905000</v>
+        <v>971.90499999999997</v>
       </c>
       <c r="AC11" s="1">
-        <v>-77.912800</v>
+        <v>-77.912800000000004</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>84855.446446</v>
+        <v>84855.446446000002</v>
       </c>
       <c r="AF11" s="1">
         <v>23.570957</v>
       </c>
       <c r="AG11" s="1">
-        <v>976.747000</v>
+        <v>976.74699999999996</v>
       </c>
       <c r="AH11" s="1">
-        <v>-75.517600</v>
+        <v>-75.517600000000002</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>84865.866895</v>
+        <v>84865.866894999999</v>
       </c>
       <c r="AK11" s="1">
-        <v>23.573852</v>
+        <v>23.573851999999999</v>
       </c>
       <c r="AL11" s="1">
-        <v>984.119000</v>
+        <v>984.11900000000003</v>
       </c>
       <c r="AM11" s="1">
-        <v>-79.854000</v>
+        <v>-79.853999999999999</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>84876.574529</v>
+        <v>84876.574529000005</v>
       </c>
       <c r="AP11" s="1">
-        <v>23.576826</v>
+        <v>23.576826000000001</v>
       </c>
       <c r="AQ11" s="1">
-        <v>992.275000</v>
+        <v>992.27499999999998</v>
       </c>
       <c r="AR11" s="1">
-        <v>-91.126100</v>
+        <v>-91.126099999999994</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <v>84887.626386</v>
+        <v>84887.626386000004</v>
       </c>
       <c r="AU11" s="1">
-        <v>23.579896</v>
+        <v>23.579896000000002</v>
       </c>
       <c r="AV11" s="1">
-        <v>1002.180000</v>
+        <v>1002.18</v>
       </c>
       <c r="AW11" s="1">
-        <v>-108.437000</v>
+        <v>-108.437</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>84899.004611</v>
+        <v>84899.004610999997</v>
       </c>
       <c r="AZ11" s="1">
         <v>23.583057</v>
       </c>
       <c r="BA11" s="1">
-        <v>1010.470000</v>
+        <v>1010.47</v>
       </c>
       <c r="BB11" s="1">
-        <v>-123.883000</v>
+        <v>-123.883</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>84910.022742</v>
+        <v>84910.022742000001</v>
       </c>
       <c r="BE11" s="1">
-        <v>23.586117</v>
+        <v>23.586117000000002</v>
       </c>
       <c r="BF11" s="1">
-        <v>1049.260000</v>
+        <v>1049.26</v>
       </c>
       <c r="BG11" s="1">
-        <v>-194.850000</v>
+        <v>-194.85</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
         <v>84920.820647</v>
       </c>
       <c r="BJ11" s="1">
-        <v>23.589117</v>
+        <v>23.589117000000002</v>
       </c>
       <c r="BK11" s="1">
-        <v>1116.210000</v>
+        <v>1116.21</v>
       </c>
       <c r="BL11" s="1">
-        <v>-309.436000</v>
+        <v>-309.43599999999998</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>84932.562935</v>
+        <v>84932.562934999994</v>
       </c>
       <c r="BO11" s="1">
-        <v>23.592379</v>
+        <v>23.592379000000001</v>
       </c>
       <c r="BP11" s="1">
-        <v>1224.500000</v>
+        <v>1224.5</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-488.797000</v>
+        <v>-488.79700000000003</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>84943.860846</v>
+        <v>84943.860845999996</v>
       </c>
       <c r="BT11" s="1">
-        <v>23.595517</v>
+        <v>23.595517000000001</v>
       </c>
       <c r="BU11" s="1">
-        <v>1345.680000</v>
+        <v>1345.68</v>
       </c>
       <c r="BV11" s="1">
-        <v>-684.773000</v>
+        <v>-684.77300000000002</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>84955.025258</v>
+        <v>84955.025257999994</v>
       </c>
       <c r="BY11" s="1">
-        <v>23.598618</v>
+        <v>23.598617999999998</v>
       </c>
       <c r="BZ11" s="1">
-        <v>1480.060000</v>
+        <v>1480.06</v>
       </c>
       <c r="CA11" s="1">
-        <v>-892.224000</v>
+        <v>-892.22400000000005</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>84966.765562</v>
+        <v>84966.765562000001</v>
       </c>
       <c r="CD11" s="1">
         <v>23.601879</v>
       </c>
       <c r="CE11" s="1">
-        <v>1828.710000</v>
+        <v>1828.71</v>
       </c>
       <c r="CF11" s="1">
-        <v>-1383.520000</v>
+        <v>-1383.52</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
-        <v>84793.126111</v>
+        <v>84793.126111000005</v>
       </c>
       <c r="B12" s="1">
-        <v>23.553646</v>
+        <v>23.553646000000001</v>
       </c>
       <c r="C12" s="1">
-        <v>908.360000</v>
+        <v>908.36</v>
       </c>
       <c r="D12" s="1">
-        <v>-201.848000</v>
+        <v>-201.84800000000001</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>84803.242018</v>
+        <v>84803.242018000004</v>
       </c>
       <c r="G12" s="1">
-        <v>23.556456</v>
+        <v>23.556456000000001</v>
       </c>
       <c r="H12" s="1">
-        <v>926.445000</v>
+        <v>926.44500000000005</v>
       </c>
       <c r="I12" s="1">
-        <v>-171.039000</v>
+        <v>-171.03899999999999</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>84813.773076</v>
+        <v>84813.773075999998</v>
       </c>
       <c r="L12" s="1">
-        <v>23.559381</v>
+        <v>23.559380999999998</v>
       </c>
       <c r="M12" s="1">
-        <v>950.441000</v>
+        <v>950.44100000000003</v>
       </c>
       <c r="N12" s="1">
-        <v>-121.678000</v>
+        <v>-121.678</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>84824.310582</v>
+        <v>84824.310582000006</v>
       </c>
       <c r="Q12" s="1">
-        <v>23.562308</v>
+        <v>23.562308000000002</v>
       </c>
       <c r="R12" s="1">
-        <v>957.463000</v>
+        <v>957.46299999999997</v>
       </c>
       <c r="S12" s="1">
-        <v>-105.240000</v>
+        <v>-105.24</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>84834.773192</v>
+        <v>84834.773191999993</v>
       </c>
       <c r="V12" s="1">
-        <v>23.565215</v>
+        <v>23.565214999999998</v>
       </c>
       <c r="W12" s="1">
-        <v>964.405000</v>
+        <v>964.40499999999997</v>
       </c>
       <c r="X12" s="1">
-        <v>-89.958800</v>
+        <v>-89.958799999999997</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>84845.274026</v>
+        <v>84845.274025999999</v>
       </c>
       <c r="AA12" s="1">
-        <v>23.568132</v>
+        <v>23.568131999999999</v>
       </c>
       <c r="AB12" s="1">
-        <v>971.928000</v>
+        <v>971.928</v>
       </c>
       <c r="AC12" s="1">
-        <v>-77.931700</v>
+        <v>-77.931700000000006</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>84855.795132</v>
+        <v>84855.795131999999</v>
       </c>
       <c r="AF12" s="1">
         <v>23.571054</v>
       </c>
       <c r="AG12" s="1">
-        <v>976.747000</v>
+        <v>976.74699999999996</v>
       </c>
       <c r="AH12" s="1">
-        <v>-75.510300</v>
+        <v>-75.510300000000001</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>84866.218558</v>
+        <v>84866.218557999993</v>
       </c>
       <c r="AK12" s="1">
-        <v>23.573950</v>
+        <v>23.57395</v>
       </c>
       <c r="AL12" s="1">
-        <v>984.135000</v>
+        <v>984.13499999999999</v>
       </c>
       <c r="AM12" s="1">
-        <v>-79.830200</v>
+        <v>-79.830200000000005</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>84876.929170</v>
+        <v>84876.929170000003</v>
       </c>
       <c r="AP12" s="1">
-        <v>23.576925</v>
+        <v>23.576924999999999</v>
       </c>
       <c r="AQ12" s="1">
-        <v>992.278000</v>
+        <v>992.27800000000002</v>
       </c>
       <c r="AR12" s="1">
-        <v>-91.124100</v>
+        <v>-91.124099999999999</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>84888.352567</v>
+        <v>84888.352566999994</v>
       </c>
       <c r="AU12" s="1">
         <v>23.580098</v>
       </c>
       <c r="AV12" s="1">
-        <v>1002.180000</v>
+        <v>1002.18</v>
       </c>
       <c r="AW12" s="1">
-        <v>-108.450000</v>
+        <v>-108.45</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>84899.379124</v>
+        <v>84899.379123999999</v>
       </c>
       <c r="AZ12" s="1">
         <v>23.583161</v>
       </c>
       <c r="BA12" s="1">
-        <v>1010.470000</v>
+        <v>1010.47</v>
       </c>
       <c r="BB12" s="1">
-        <v>-123.891000</v>
+        <v>-123.89100000000001</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>84910.387300</v>
+        <v>84910.387300000002</v>
       </c>
       <c r="BE12" s="1">
         <v>23.586219</v>
       </c>
       <c r="BF12" s="1">
-        <v>1049.270000</v>
+        <v>1049.27</v>
       </c>
       <c r="BG12" s="1">
-        <v>-194.863000</v>
+        <v>-194.863</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
         <v>84921.196614</v>
       </c>
       <c r="BJ12" s="1">
-        <v>23.589221</v>
+        <v>23.589220999999998</v>
       </c>
       <c r="BK12" s="1">
-        <v>1116.230000</v>
+        <v>1116.23</v>
       </c>
       <c r="BL12" s="1">
-        <v>-309.453000</v>
+        <v>-309.45299999999997</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>84932.959239</v>
+        <v>84932.959239000003</v>
       </c>
       <c r="BO12" s="1">
         <v>23.592489</v>
       </c>
       <c r="BP12" s="1">
-        <v>1224.540000</v>
+        <v>1224.54</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-488.790000</v>
+        <v>-488.79</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>84944.583015</v>
+        <v>84944.583014999997</v>
       </c>
       <c r="BT12" s="1">
-        <v>23.595718</v>
+        <v>23.595718000000002</v>
       </c>
       <c r="BU12" s="1">
-        <v>1345.680000</v>
+        <v>1345.68</v>
       </c>
       <c r="BV12" s="1">
-        <v>-684.766000</v>
+        <v>-684.76599999999996</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>84955.144793</v>
+        <v>84955.144792999999</v>
       </c>
       <c r="BY12" s="1">
         <v>23.598651</v>
       </c>
       <c r="BZ12" s="1">
-        <v>1480.060000</v>
+        <v>1480.06</v>
       </c>
       <c r="CA12" s="1">
-        <v>-892.098000</v>
+        <v>-892.09799999999996</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>84967.003658</v>
+        <v>84967.003658000001</v>
       </c>
       <c r="CD12" s="1">
-        <v>23.601945</v>
+        <v>23.601945000000001</v>
       </c>
       <c r="CE12" s="1">
-        <v>1828.380000</v>
+        <v>1828.38</v>
       </c>
       <c r="CF12" s="1">
-        <v>-1384.800000</v>
+        <v>-1384.8</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
-        <v>84793.550688</v>
+        <v>84793.550688000003</v>
       </c>
       <c r="B13" s="1">
-        <v>23.553764</v>
+        <v>23.553764000000001</v>
       </c>
       <c r="C13" s="1">
-        <v>908.158000</v>
+        <v>908.15800000000002</v>
       </c>
       <c r="D13" s="1">
-        <v>-201.816000</v>
+        <v>-201.816</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>84803.657702</v>
+        <v>84803.657701999997</v>
       </c>
       <c r="G13" s="1">
-        <v>23.556572</v>
+        <v>23.556571999999999</v>
       </c>
       <c r="H13" s="1">
-        <v>926.648000</v>
+        <v>926.64800000000002</v>
       </c>
       <c r="I13" s="1">
-        <v>-171.041000</v>
+        <v>-171.041</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>84814.045876</v>
+        <v>84814.045876000004</v>
       </c>
       <c r="L13" s="1">
-        <v>23.559457</v>
+        <v>23.559456999999998</v>
       </c>
       <c r="M13" s="1">
-        <v>950.380000</v>
+        <v>950.38</v>
       </c>
       <c r="N13" s="1">
-        <v>-121.774000</v>
+        <v>-121.774</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>84824.582886</v>
+        <v>84824.582886000004</v>
       </c>
       <c r="Q13" s="1">
-        <v>23.562384</v>
+        <v>23.562384000000002</v>
       </c>
       <c r="R13" s="1">
-        <v>957.459000</v>
+        <v>957.45899999999995</v>
       </c>
       <c r="S13" s="1">
-        <v>-105.273000</v>
+        <v>-105.273</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>84835.118908</v>
+        <v>84835.118908000004</v>
       </c>
       <c r="V13" s="1">
-        <v>23.565311</v>
+        <v>23.565311000000001</v>
       </c>
       <c r="W13" s="1">
-        <v>964.326000</v>
+        <v>964.32600000000002</v>
       </c>
       <c r="X13" s="1">
-        <v>-89.939800</v>
+        <v>-89.939800000000005</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>84845.624666</v>
+        <v>84845.624666000003</v>
       </c>
       <c r="AA13" s="1">
-        <v>23.568229</v>
+        <v>23.568228999999999</v>
       </c>
       <c r="AB13" s="1">
-        <v>971.804000</v>
+        <v>971.80399999999997</v>
       </c>
       <c r="AC13" s="1">
-        <v>-77.945100</v>
+        <v>-77.945099999999996</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
         <v>84856.139356</v>
       </c>
       <c r="AF13" s="1">
-        <v>23.571150</v>
+        <v>23.571149999999999</v>
       </c>
       <c r="AG13" s="1">
-        <v>976.747000</v>
+        <v>976.74699999999996</v>
       </c>
       <c r="AH13" s="1">
-        <v>-75.454000</v>
+        <v>-75.453999999999994</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>84866.913951</v>
+        <v>84866.913950999995</v>
       </c>
       <c r="AK13" s="1">
-        <v>23.574143</v>
+        <v>23.574142999999999</v>
       </c>
       <c r="AL13" s="1">
-        <v>984.107000</v>
+        <v>984.10699999999997</v>
       </c>
       <c r="AM13" s="1">
-        <v>-79.859300</v>
+        <v>-79.859300000000005</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>84877.654816</v>
+        <v>84877.654815999995</v>
       </c>
       <c r="AP13" s="1">
         <v>23.577126</v>
       </c>
       <c r="AQ13" s="1">
-        <v>992.297000</v>
+        <v>992.29700000000003</v>
       </c>
       <c r="AR13" s="1">
-        <v>-91.102700</v>
+        <v>-91.102699999999999</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>84888.717089</v>
+        <v>84888.717088999998</v>
       </c>
       <c r="AU13" s="1">
         <v>23.580199</v>
       </c>
       <c r="AV13" s="1">
-        <v>1002.170000</v>
+        <v>1002.17</v>
       </c>
       <c r="AW13" s="1">
-        <v>-108.442000</v>
+        <v>-108.44199999999999</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
-        <v>84899.760520</v>
+        <v>84899.760519999996</v>
       </c>
       <c r="AZ13" s="1">
-        <v>23.583267</v>
+        <v>23.583266999999999</v>
       </c>
       <c r="BA13" s="1">
-        <v>1010.460000</v>
+        <v>1010.46</v>
       </c>
       <c r="BB13" s="1">
-        <v>-123.912000</v>
+        <v>-123.91200000000001</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>84910.749876</v>
+        <v>84910.749876000002</v>
       </c>
       <c r="BE13" s="1">
         <v>23.586319</v>
       </c>
       <c r="BF13" s="1">
-        <v>1049.250000</v>
+        <v>1049.25</v>
       </c>
       <c r="BG13" s="1">
-        <v>-194.831000</v>
+        <v>-194.83099999999999</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>84921.882581</v>
+        <v>84921.882580999998</v>
       </c>
       <c r="BJ13" s="1">
-        <v>23.589412</v>
+        <v>23.589411999999999</v>
       </c>
       <c r="BK13" s="1">
-        <v>1116.230000</v>
+        <v>1116.23</v>
       </c>
       <c r="BL13" s="1">
-        <v>-309.454000</v>
+        <v>-309.45400000000001</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>84933.579238</v>
+        <v>84933.579238000006</v>
       </c>
       <c r="BO13" s="1">
         <v>23.592661</v>
       </c>
       <c r="BP13" s="1">
-        <v>1224.510000</v>
+        <v>1224.51</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-488.746000</v>
+        <v>-488.74599999999998</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
-        <v>84944.702518</v>
+        <v>84944.702518000006</v>
       </c>
       <c r="BT13" s="1">
         <v>23.595751</v>
       </c>
       <c r="BU13" s="1">
-        <v>1345.800000</v>
+        <v>1345.8</v>
       </c>
       <c r="BV13" s="1">
-        <v>-684.716000</v>
+        <v>-684.71600000000001</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>84955.591209</v>
+        <v>84955.591209000006</v>
       </c>
       <c r="BY13" s="1">
         <v>23.598775</v>
       </c>
       <c r="BZ13" s="1">
-        <v>1480.050000</v>
+        <v>1480.05</v>
       </c>
       <c r="CA13" s="1">
-        <v>-892.169000</v>
+        <v>-892.16899999999998</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>84967.536840</v>
+        <v>84967.536840000001</v>
       </c>
       <c r="CD13" s="1">
-        <v>23.602094</v>
+        <v>23.602094000000001</v>
       </c>
       <c r="CE13" s="1">
-        <v>1829.890000</v>
+        <v>1829.89</v>
       </c>
       <c r="CF13" s="1">
-        <v>-1383.550000</v>
+        <v>-1383.55</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>84793.827455</v>
+        <v>84793.827455000006</v>
       </c>
       <c r="B14" s="1">
-        <v>23.553841</v>
+        <v>23.553840999999998</v>
       </c>
       <c r="C14" s="1">
-        <v>908.358000</v>
+        <v>908.35799999999995</v>
       </c>
       <c r="D14" s="1">
-        <v>-201.774000</v>
+        <v>-201.774</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>84803.936945</v>
+        <v>84803.936944999994</v>
       </c>
       <c r="G14" s="1">
         <v>23.556649</v>
       </c>
       <c r="H14" s="1">
-        <v>926.669000</v>
+        <v>926.66899999999998</v>
       </c>
       <c r="I14" s="1">
-        <v>-171.108000</v>
+        <v>-171.108</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>84814.391618</v>
+        <v>84814.391617999994</v>
       </c>
       <c r="L14" s="1">
-        <v>23.559553</v>
+        <v>23.559553000000001</v>
       </c>
       <c r="M14" s="1">
-        <v>950.468000</v>
+        <v>950.46799999999996</v>
       </c>
       <c r="N14" s="1">
-        <v>-121.760000</v>
+        <v>-121.76</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>84824.928635</v>
+        <v>84824.928635000004</v>
       </c>
       <c r="Q14" s="1">
-        <v>23.562480</v>
+        <v>23.562480000000001</v>
       </c>
       <c r="R14" s="1">
-        <v>957.438000</v>
+        <v>957.43799999999999</v>
       </c>
       <c r="S14" s="1">
-        <v>-105.228000</v>
+        <v>-105.22799999999999</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
         <v>84835.460647</v>
       </c>
       <c r="V14" s="1">
-        <v>23.565406</v>
+        <v>23.565405999999999</v>
       </c>
       <c r="W14" s="1">
-        <v>964.207000</v>
+        <v>964.20699999999999</v>
       </c>
       <c r="X14" s="1">
-        <v>-89.900100</v>
+        <v>-89.900099999999995</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>84846.321545</v>
+        <v>84846.321544999999</v>
       </c>
       <c r="AA14" s="1">
-        <v>23.568423</v>
+        <v>23.568422999999999</v>
       </c>
       <c r="AB14" s="1">
-        <v>971.800000</v>
+        <v>971.8</v>
       </c>
       <c r="AC14" s="1">
-        <v>-77.963200</v>
+        <v>-77.963200000000001</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>84856.822348</v>
+        <v>84856.822348000002</v>
       </c>
       <c r="AF14" s="1">
-        <v>23.571340</v>
+        <v>23.571339999999999</v>
       </c>
       <c r="AG14" s="1">
-        <v>976.723000</v>
+        <v>976.72299999999996</v>
       </c>
       <c r="AH14" s="1">
-        <v>-75.490800</v>
+        <v>-75.490799999999993</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>84867.263134</v>
+        <v>84867.263133999993</v>
       </c>
       <c r="AK14" s="1">
-        <v>23.574240</v>
+        <v>23.57424</v>
       </c>
       <c r="AL14" s="1">
-        <v>984.125000</v>
+        <v>984.125</v>
       </c>
       <c r="AM14" s="1">
-        <v>-79.861100</v>
+        <v>-79.861099999999993</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>84878.045167</v>
+        <v>84878.045167000004</v>
       </c>
       <c r="AP14" s="1">
-        <v>23.577235</v>
+        <v>23.577235000000002</v>
       </c>
       <c r="AQ14" s="1">
-        <v>992.279000</v>
+        <v>992.279</v>
       </c>
       <c r="AR14" s="1">
-        <v>-91.113000</v>
+        <v>-91.113</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>84889.084128</v>
+        <v>84889.084128000002</v>
       </c>
       <c r="AU14" s="1">
-        <v>23.580301</v>
+        <v>23.580300999999999</v>
       </c>
       <c r="AV14" s="1">
-        <v>1002.170000</v>
+        <v>1002.17</v>
       </c>
       <c r="AW14" s="1">
-        <v>-108.440000</v>
+        <v>-108.44</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>84900.438049</v>
+        <v>84900.438049000004</v>
       </c>
       <c r="AZ14" s="1">
-        <v>23.583455</v>
+        <v>23.583455000000001</v>
       </c>
       <c r="BA14" s="1">
-        <v>1010.480000</v>
+        <v>1010.48</v>
       </c>
       <c r="BB14" s="1">
-        <v>-123.892000</v>
+        <v>-123.892</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
-        <v>84911.418980</v>
+        <v>84911.418980000002</v>
       </c>
       <c r="BE14" s="1">
-        <v>23.586505</v>
+        <v>23.586504999999999</v>
       </c>
       <c r="BF14" s="1">
-        <v>1049.250000</v>
+        <v>1049.25</v>
       </c>
       <c r="BG14" s="1">
-        <v>-194.849000</v>
+        <v>-194.84899999999999</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>84922.320549</v>
+        <v>84922.320548999996</v>
       </c>
       <c r="BJ14" s="1">
-        <v>23.589533</v>
+        <v>23.589532999999999</v>
       </c>
       <c r="BK14" s="1">
-        <v>1116.230000</v>
+        <v>1116.23</v>
       </c>
       <c r="BL14" s="1">
-        <v>-309.436000</v>
+        <v>-309.43599999999998</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>84933.774662</v>
+        <v>84933.774661999996</v>
       </c>
       <c r="BO14" s="1">
-        <v>23.592715</v>
+        <v>23.592714999999998</v>
       </c>
       <c r="BP14" s="1">
-        <v>1224.540000</v>
+        <v>1224.54</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-488.792000</v>
+        <v>-488.79199999999997</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>84945.142475</v>
+        <v>84945.142475000001</v>
       </c>
       <c r="BT14" s="1">
-        <v>23.595873</v>
+        <v>23.595873000000001</v>
       </c>
       <c r="BU14" s="1">
-        <v>1345.780000</v>
+        <v>1345.78</v>
       </c>
       <c r="BV14" s="1">
-        <v>-684.698000</v>
+        <v>-684.69799999999998</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>84956.022712</v>
+        <v>84956.022712000005</v>
       </c>
       <c r="BY14" s="1">
-        <v>23.598895</v>
+        <v>23.598894999999999</v>
       </c>
       <c r="BZ14" s="1">
-        <v>1480.030000</v>
+        <v>1480.03</v>
       </c>
       <c r="CA14" s="1">
-        <v>-892.211000</v>
+        <v>-892.21100000000001</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
-        <v>84968.078510</v>
+        <v>84968.078510000007</v>
       </c>
       <c r="CD14" s="1">
-        <v>23.602244</v>
+        <v>23.602243999999999</v>
       </c>
       <c r="CE14" s="1">
-        <v>1828.450000</v>
+        <v>1828.45</v>
       </c>
       <c r="CF14" s="1">
-        <v>-1383.700000</v>
+        <v>-1383.7</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>84794.168702</v>
+        <v>84794.168701999995</v>
       </c>
       <c r="B15" s="1">
         <v>23.553936</v>
       </c>
       <c r="C15" s="1">
-        <v>908.260000</v>
+        <v>908.26</v>
       </c>
       <c r="D15" s="1">
-        <v>-201.909000</v>
+        <v>-201.90899999999999</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>84804.281137</v>
+        <v>84804.281136999998</v>
       </c>
       <c r="G15" s="1">
-        <v>23.556745</v>
+        <v>23.556744999999999</v>
       </c>
       <c r="H15" s="1">
-        <v>926.686000</v>
+        <v>926.68600000000004</v>
       </c>
       <c r="I15" s="1">
-        <v>-170.786000</v>
+        <v>-170.786</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>84814.736802</v>
+        <v>84814.736801999999</v>
       </c>
       <c r="L15" s="1">
         <v>23.559649</v>
       </c>
       <c r="M15" s="1">
-        <v>950.502000</v>
+        <v>950.50199999999995</v>
       </c>
       <c r="N15" s="1">
-        <v>-121.703000</v>
+        <v>-121.703</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>84825.276789</v>
+        <v>84825.276788999996</v>
       </c>
       <c r="Q15" s="1">
-        <v>23.562577</v>
+        <v>23.562577000000001</v>
       </c>
       <c r="R15" s="1">
-        <v>957.500000</v>
+        <v>957.5</v>
       </c>
       <c r="S15" s="1">
-        <v>-105.223000</v>
+        <v>-105.223</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>84836.149094</v>
+        <v>84836.149093999993</v>
       </c>
       <c r="V15" s="1">
         <v>23.565597</v>
       </c>
       <c r="W15" s="1">
-        <v>964.251000</v>
+        <v>964.25099999999998</v>
       </c>
       <c r="X15" s="1">
-        <v>-89.928600</v>
+        <v>-89.928600000000003</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>84846.671224</v>
+        <v>84846.671224000005</v>
       </c>
       <c r="AA15" s="1">
-        <v>23.568520</v>
+        <v>23.568519999999999</v>
       </c>
       <c r="AB15" s="1">
-        <v>971.825000</v>
+        <v>971.82500000000005</v>
       </c>
       <c r="AC15" s="1">
-        <v>-77.947000</v>
+        <v>-77.947000000000003</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>84857.163596</v>
+        <v>84857.163595999999</v>
       </c>
       <c r="AF15" s="1">
         <v>23.571434</v>
       </c>
       <c r="AG15" s="1">
-        <v>976.726000</v>
+        <v>976.726</v>
       </c>
       <c r="AH15" s="1">
-        <v>-75.521400</v>
+        <v>-75.5214</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>84867.611326</v>
+        <v>84867.611325999998</v>
       </c>
       <c r="AK15" s="1">
-        <v>23.574336</v>
+        <v>23.574335999999999</v>
       </c>
       <c r="AL15" s="1">
-        <v>984.141000</v>
+        <v>984.14099999999996</v>
       </c>
       <c r="AM15" s="1">
-        <v>-79.856300</v>
+        <v>-79.856300000000005</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
         <v>84878.404272</v>
       </c>
       <c r="AP15" s="1">
-        <v>23.577335</v>
+        <v>23.577335000000001</v>
       </c>
       <c r="AQ15" s="1">
-        <v>992.283000</v>
+        <v>992.28300000000002</v>
       </c>
       <c r="AR15" s="1">
-        <v>-91.106700</v>
+        <v>-91.106700000000004</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>84889.772607</v>
+        <v>84889.772607000006</v>
       </c>
       <c r="AU15" s="1">
         <v>23.580492</v>
       </c>
       <c r="AV15" s="1">
-        <v>1002.180000</v>
+        <v>1002.18</v>
       </c>
       <c r="AW15" s="1">
-        <v>-108.449000</v>
+        <v>-108.449</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>84900.844306</v>
+        <v>84900.844305999999</v>
       </c>
       <c r="AZ15" s="1">
         <v>23.583568</v>
       </c>
       <c r="BA15" s="1">
-        <v>1010.460000</v>
+        <v>1010.46</v>
       </c>
       <c r="BB15" s="1">
-        <v>-123.891000</v>
+        <v>-123.89100000000001</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>84911.856984</v>
+        <v>84911.856983999998</v>
       </c>
       <c r="BE15" s="1">
         <v>23.586627</v>
       </c>
       <c r="BF15" s="1">
-        <v>1049.270000</v>
+        <v>1049.27</v>
       </c>
       <c r="BG15" s="1">
-        <v>-194.855000</v>
+        <v>-194.85499999999999</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>84922.696516</v>
+        <v>84922.696515999996</v>
       </c>
       <c r="BJ15" s="1">
-        <v>23.589638</v>
+        <v>23.589638000000001</v>
       </c>
       <c r="BK15" s="1">
-        <v>1116.230000</v>
+        <v>1116.23</v>
       </c>
       <c r="BL15" s="1">
-        <v>-309.441000</v>
+        <v>-309.44099999999997</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
-        <v>84934.194809</v>
+        <v>84934.194808999993</v>
       </c>
       <c r="BO15" s="1">
-        <v>23.592832</v>
+        <v>23.592832000000001</v>
       </c>
       <c r="BP15" s="1">
-        <v>1224.500000</v>
+        <v>1224.5</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-488.785000</v>
+        <v>-488.78500000000003</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>84945.568534</v>
+        <v>84945.568534000005</v>
       </c>
       <c r="BT15" s="1">
-        <v>23.595991</v>
+        <v>23.595991000000001</v>
       </c>
       <c r="BU15" s="1">
-        <v>1345.790000</v>
+        <v>1345.79</v>
       </c>
       <c r="BV15" s="1">
-        <v>-684.624000</v>
+        <v>-684.62400000000002</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>84956.449273</v>
+        <v>84956.449273000006</v>
       </c>
       <c r="BY15" s="1">
         <v>23.599014</v>
       </c>
       <c r="BZ15" s="1">
-        <v>1480.090000</v>
+        <v>1480.09</v>
       </c>
       <c r="CA15" s="1">
-        <v>-892.224000</v>
+        <v>-892.22400000000005</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>84968.616137</v>
+        <v>84968.616137000005</v>
       </c>
       <c r="CD15" s="1">
-        <v>23.602393</v>
+        <v>23.602392999999999</v>
       </c>
       <c r="CE15" s="1">
-        <v>1829.240000</v>
+        <v>1829.24</v>
       </c>
       <c r="CF15" s="1">
-        <v>-1385.000000</v>
+        <v>-1385</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>84794.513422</v>
+        <v>84794.513422000004</v>
       </c>
       <c r="B16" s="1">
-        <v>23.554032</v>
+        <v>23.554031999999999</v>
       </c>
       <c r="C16" s="1">
-        <v>908.338000</v>
+        <v>908.33799999999997</v>
       </c>
       <c r="D16" s="1">
-        <v>-201.792000</v>
+        <v>-201.792</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>84804.624864</v>
+        <v>84804.624863999998</v>
       </c>
       <c r="G16" s="1">
-        <v>23.556840</v>
+        <v>23.556840000000001</v>
       </c>
       <c r="H16" s="1">
-        <v>926.576000</v>
+        <v>926.57600000000002</v>
       </c>
       <c r="I16" s="1">
-        <v>-171.321000</v>
+        <v>-171.321</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>84815.428723</v>
+        <v>84815.428723000005</v>
       </c>
       <c r="L16" s="1">
-        <v>23.559841</v>
+        <v>23.559840999999999</v>
       </c>
       <c r="M16" s="1">
-        <v>950.429000</v>
+        <v>950.42899999999997</v>
       </c>
       <c r="N16" s="1">
-        <v>-121.563000</v>
+        <v>-121.563</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>84825.984084</v>
+        <v>84825.984083999996</v>
       </c>
       <c r="Q16" s="1">
         <v>23.562773</v>
       </c>
       <c r="R16" s="1">
-        <v>957.501000</v>
+        <v>957.50099999999998</v>
       </c>
       <c r="S16" s="1">
-        <v>-105.226000</v>
+        <v>-105.226</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>84836.491830</v>
+        <v>84836.491829999999</v>
       </c>
       <c r="V16" s="1">
-        <v>23.565692</v>
+        <v>23.565691999999999</v>
       </c>
       <c r="W16" s="1">
-        <v>964.269000</v>
+        <v>964.26900000000001</v>
       </c>
       <c r="X16" s="1">
-        <v>-89.955000</v>
+        <v>-89.954999999999998</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>84847.023416</v>
+        <v>84847.023415999996</v>
       </c>
       <c r="AA16" s="1">
-        <v>23.568618</v>
+        <v>23.568618000000001</v>
       </c>
       <c r="AB16" s="1">
-        <v>971.788000</v>
+        <v>971.78800000000001</v>
       </c>
       <c r="AC16" s="1">
-        <v>-77.916400</v>
+        <v>-77.916399999999996</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>84857.507818</v>
+        <v>84857.507817999998</v>
       </c>
       <c r="AF16" s="1">
-        <v>23.571530</v>
+        <v>23.571529999999999</v>
       </c>
       <c r="AG16" s="1">
-        <v>976.745000</v>
+        <v>976.745</v>
       </c>
       <c r="AH16" s="1">
-        <v>-75.474100</v>
+        <v>-75.474100000000007</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>84868.274476</v>
+        <v>84868.274476000006</v>
       </c>
       <c r="AK16" s="1">
-        <v>23.574521</v>
+        <v>23.574521000000001</v>
       </c>
       <c r="AL16" s="1">
-        <v>984.101000</v>
+        <v>984.101</v>
       </c>
       <c r="AM16" s="1">
-        <v>-79.864100</v>
+        <v>-79.864099999999993</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>84879.047618</v>
+        <v>84879.047617999997</v>
       </c>
       <c r="AP16" s="1">
         <v>23.577513</v>
       </c>
       <c r="AQ16" s="1">
-        <v>992.300000</v>
+        <v>992.3</v>
       </c>
       <c r="AR16" s="1">
-        <v>-91.109700</v>
+        <v>-91.109700000000004</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <v>84890.204127</v>
+        <v>84890.204127000005</v>
       </c>
       <c r="AU16" s="1">
-        <v>23.580612</v>
+        <v>23.580611999999999</v>
       </c>
       <c r="AV16" s="1">
-        <v>1002.160000</v>
+        <v>1002.16</v>
       </c>
       <c r="AW16" s="1">
-        <v>-108.444000</v>
+        <v>-108.444</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>84901.220768</v>
+        <v>84901.220767999999</v>
       </c>
       <c r="AZ16" s="1">
         <v>23.583672</v>
       </c>
       <c r="BA16" s="1">
-        <v>1010.460000</v>
+        <v>1010.46</v>
       </c>
       <c r="BB16" s="1">
-        <v>-123.888000</v>
+        <v>-123.88800000000001</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>84912.218074</v>
+        <v>84912.218074000004</v>
       </c>
       <c r="BE16" s="1">
         <v>23.586727</v>
       </c>
       <c r="BF16" s="1">
-        <v>1049.250000</v>
+        <v>1049.25</v>
       </c>
       <c r="BG16" s="1">
-        <v>-194.850000</v>
+        <v>-194.85</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>84923.071987</v>
+        <v>84923.071987000003</v>
       </c>
       <c r="BJ16" s="1">
-        <v>23.589742</v>
+        <v>23.589742000000001</v>
       </c>
       <c r="BK16" s="1">
-        <v>1116.210000</v>
+        <v>1116.21</v>
       </c>
       <c r="BL16" s="1">
-        <v>-309.420000</v>
+        <v>-309.42</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>84934.628309</v>
+        <v>84934.628309000007</v>
       </c>
       <c r="BO16" s="1">
         <v>23.592952</v>
       </c>
       <c r="BP16" s="1">
-        <v>1224.500000</v>
+        <v>1224.5</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-488.754000</v>
+        <v>-488.75400000000002</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>84945.993109</v>
+        <v>84945.993109000003</v>
       </c>
       <c r="BT16" s="1">
-        <v>23.596109</v>
+        <v>23.596108999999998</v>
       </c>
       <c r="BU16" s="1">
-        <v>1345.790000</v>
+        <v>1345.79</v>
       </c>
       <c r="BV16" s="1">
-        <v>-684.663000</v>
+        <v>-684.66300000000001</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>84956.867430</v>
+        <v>84956.867429999998</v>
       </c>
       <c r="BY16" s="1">
-        <v>23.599130</v>
+        <v>23.599129999999999</v>
       </c>
       <c r="BZ16" s="1">
-        <v>1480.110000</v>
+        <v>1480.11</v>
       </c>
       <c r="CA16" s="1">
-        <v>-892.156000</v>
+        <v>-892.15599999999995</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>84969.154833</v>
+        <v>84969.154832999993</v>
       </c>
       <c r="CD16" s="1">
-        <v>23.602543</v>
+        <v>23.602543000000001</v>
       </c>
       <c r="CE16" s="1">
-        <v>1829.090000</v>
+        <v>1829.09</v>
       </c>
       <c r="CF16" s="1">
-        <v>-1382.930000</v>
+        <v>-1382.93</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>84795.194963</v>
+        <v>84795.194963000002</v>
       </c>
       <c r="B17" s="1">
-        <v>23.554221</v>
+        <v>23.554220999999998</v>
       </c>
       <c r="C17" s="1">
-        <v>908.349000</v>
+        <v>908.34900000000005</v>
       </c>
       <c r="D17" s="1">
-        <v>-201.855000</v>
+        <v>-201.85499999999999</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>84805.313344</v>
+        <v>84805.313343999995</v>
       </c>
       <c r="G17" s="1">
-        <v>23.557031</v>
+        <v>23.557030999999998</v>
       </c>
       <c r="H17" s="1">
-        <v>926.427000</v>
+        <v>926.42700000000002</v>
       </c>
       <c r="I17" s="1">
-        <v>-170.776000</v>
+        <v>-170.77600000000001</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>84815.782865</v>
+        <v>84815.782865000001</v>
       </c>
       <c r="L17" s="1">
-        <v>23.559940</v>
+        <v>23.559940000000001</v>
       </c>
       <c r="M17" s="1">
-        <v>950.440000</v>
+        <v>950.44</v>
       </c>
       <c r="N17" s="1">
-        <v>-121.549000</v>
+        <v>-121.54900000000001</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>84826.321363</v>
+        <v>84826.321362999995</v>
       </c>
       <c r="Q17" s="1">
-        <v>23.562867</v>
+        <v>23.562867000000001</v>
       </c>
       <c r="R17" s="1">
-        <v>957.482000</v>
+        <v>957.48199999999997</v>
       </c>
       <c r="S17" s="1">
-        <v>-105.245000</v>
+        <v>-105.245</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>84836.837045</v>
+        <v>84836.837044999993</v>
       </c>
       <c r="V17" s="1">
-        <v>23.565788</v>
+        <v>23.565788000000001</v>
       </c>
       <c r="W17" s="1">
-        <v>964.266000</v>
+        <v>964.26599999999996</v>
       </c>
       <c r="X17" s="1">
-        <v>-89.888400</v>
+        <v>-89.888400000000004</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
         <v>84847.689048</v>
       </c>
       <c r="AA17" s="1">
-        <v>23.568803</v>
+        <v>23.568802999999999</v>
       </c>
       <c r="AB17" s="1">
-        <v>971.846000</v>
+        <v>971.846</v>
       </c>
       <c r="AC17" s="1">
-        <v>-77.970400</v>
+        <v>-77.970399999999998</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>84858.172954</v>
+        <v>84858.172953999994</v>
       </c>
       <c r="AF17" s="1">
-        <v>23.571715</v>
+        <v>23.571715000000001</v>
       </c>
       <c r="AG17" s="1">
-        <v>976.738000</v>
+        <v>976.73800000000006</v>
       </c>
       <c r="AH17" s="1">
-        <v>-75.530400</v>
+        <v>-75.5304</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>84868.657885</v>
+        <v>84868.657884999993</v>
       </c>
       <c r="AK17" s="1">
         <v>23.574627</v>
       </c>
       <c r="AL17" s="1">
-        <v>984.121000</v>
+        <v>984.12099999999998</v>
       </c>
       <c r="AM17" s="1">
-        <v>-79.871400</v>
+        <v>-79.871399999999994</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>84879.518286</v>
+        <v>84879.518286000006</v>
       </c>
       <c r="AP17" s="1">
-        <v>23.577644</v>
+        <v>23.577643999999999</v>
       </c>
       <c r="AQ17" s="1">
-        <v>992.281000</v>
+        <v>992.28099999999995</v>
       </c>
       <c r="AR17" s="1">
-        <v>-91.135500</v>
+        <v>-91.135499999999993</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>84890.567662</v>
+        <v>84890.567662000001</v>
       </c>
       <c r="AU17" s="1">
-        <v>23.580713</v>
+        <v>23.580712999999999</v>
       </c>
       <c r="AV17" s="1">
-        <v>1002.170000</v>
+        <v>1002.17</v>
       </c>
       <c r="AW17" s="1">
-        <v>-108.440000</v>
+        <v>-108.44</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>84901.598688</v>
+        <v>84901.598687999998</v>
       </c>
       <c r="AZ17" s="1">
-        <v>23.583777</v>
+        <v>23.583777000000001</v>
       </c>
       <c r="BA17" s="1">
-        <v>1010.470000</v>
+        <v>1010.47</v>
       </c>
       <c r="BB17" s="1">
-        <v>-123.891000</v>
+        <v>-123.89100000000001</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>84912.582097</v>
+        <v>84912.582097000006</v>
       </c>
       <c r="BE17" s="1">
-        <v>23.586828</v>
+        <v>23.586828000000001</v>
       </c>
       <c r="BF17" s="1">
-        <v>1049.250000</v>
+        <v>1049.25</v>
       </c>
       <c r="BG17" s="1">
-        <v>-194.851000</v>
+        <v>-194.851</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>84923.498051</v>
+        <v>84923.498051000002</v>
       </c>
       <c r="BJ17" s="1">
-        <v>23.589861</v>
+        <v>23.589860999999999</v>
       </c>
       <c r="BK17" s="1">
-        <v>1116.260000</v>
+        <v>1116.26</v>
       </c>
       <c r="BL17" s="1">
-        <v>-309.436000</v>
+        <v>-309.43599999999998</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
-        <v>84935.016148</v>
+        <v>84935.016147999995</v>
       </c>
       <c r="BO17" s="1">
-        <v>23.593060</v>
+        <v>23.593060000000001</v>
       </c>
       <c r="BP17" s="1">
-        <v>1224.550000</v>
+        <v>1224.55</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-488.800000</v>
+        <v>-488.8</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>84946.410245</v>
+        <v>84946.410245000006</v>
       </c>
       <c r="BT17" s="1">
         <v>23.596225</v>
       </c>
       <c r="BU17" s="1">
-        <v>1345.850000</v>
+        <v>1345.85</v>
       </c>
       <c r="BV17" s="1">
-        <v>-684.637000</v>
+        <v>-684.63699999999994</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>84957.292470</v>
+        <v>84957.29247</v>
       </c>
       <c r="BY17" s="1">
-        <v>23.599248</v>
+        <v>23.599247999999999</v>
       </c>
       <c r="BZ17" s="1">
-        <v>1480.090000</v>
+        <v>1480.09</v>
       </c>
       <c r="CA17" s="1">
-        <v>-892.207000</v>
+        <v>-892.20699999999999</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>84969.694438</v>
+        <v>84969.694438000006</v>
       </c>
       <c r="CD17" s="1">
-        <v>23.602693</v>
+        <v>23.602692999999999</v>
       </c>
       <c r="CE17" s="1">
-        <v>1828.430000</v>
+        <v>1828.43</v>
       </c>
       <c r="CF17" s="1">
-        <v>-1384.670000</v>
+        <v>-1384.67</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>84795.537183</v>
+        <v>84795.537182999993</v>
       </c>
       <c r="B18" s="1">
         <v>23.554316</v>
       </c>
       <c r="C18" s="1">
-        <v>908.272000</v>
+        <v>908.27200000000005</v>
       </c>
       <c r="D18" s="1">
-        <v>-201.871000</v>
+        <v>-201.87100000000001</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>84805.658031</v>
+        <v>84805.658030999999</v>
       </c>
       <c r="G18" s="1">
-        <v>23.557127</v>
+        <v>23.557127000000001</v>
       </c>
       <c r="H18" s="1">
-        <v>926.439000</v>
+        <v>926.43899999999996</v>
       </c>
       <c r="I18" s="1">
-        <v>-171.353000</v>
+        <v>-171.35300000000001</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>84816.129075</v>
+        <v>84816.129075000004</v>
       </c>
       <c r="L18" s="1">
         <v>23.560036</v>
       </c>
       <c r="M18" s="1">
-        <v>950.427000</v>
+        <v>950.42700000000002</v>
       </c>
       <c r="N18" s="1">
-        <v>-121.638000</v>
+        <v>-121.63800000000001</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>84826.977118</v>
+        <v>84826.977117999995</v>
       </c>
       <c r="Q18" s="1">
-        <v>23.563049</v>
+        <v>23.563048999999999</v>
       </c>
       <c r="R18" s="1">
-        <v>957.395000</v>
+        <v>957.39499999999998</v>
       </c>
       <c r="S18" s="1">
-        <v>-105.273000</v>
+        <v>-105.273</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>84837.490276</v>
+        <v>84837.490275999997</v>
       </c>
       <c r="V18" s="1">
-        <v>23.565970</v>
+        <v>23.56597</v>
       </c>
       <c r="W18" s="1">
-        <v>964.245000</v>
+        <v>964.245</v>
       </c>
       <c r="X18" s="1">
-        <v>-89.941300</v>
+        <v>-89.941299999999998</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>84848.068457</v>
+        <v>84848.068457000001</v>
       </c>
       <c r="AA18" s="1">
         <v>23.568908</v>
       </c>
       <c r="AB18" s="1">
-        <v>971.806000</v>
+        <v>971.80600000000004</v>
       </c>
       <c r="AC18" s="1">
-        <v>-77.985900</v>
+        <v>-77.985900000000001</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>84858.539993</v>
+        <v>84858.539992999999</v>
       </c>
       <c r="AF18" s="1">
-        <v>23.571817</v>
+        <v>23.571816999999999</v>
       </c>
       <c r="AG18" s="1">
-        <v>976.762000</v>
+        <v>976.76199999999994</v>
       </c>
       <c r="AH18" s="1">
-        <v>-75.525800</v>
+        <v>-75.525800000000004</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>84869.006572</v>
+        <v>84869.006571999998</v>
       </c>
       <c r="AK18" s="1">
         <v>23.574724</v>
       </c>
       <c r="AL18" s="1">
-        <v>984.109000</v>
+        <v>984.10900000000004</v>
       </c>
       <c r="AM18" s="1">
-        <v>-79.856800</v>
+        <v>-79.856800000000007</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>84879.878885</v>
+        <v>84879.878884999998</v>
       </c>
       <c r="AP18" s="1">
-        <v>23.577744</v>
+        <v>23.577743999999999</v>
       </c>
       <c r="AQ18" s="1">
-        <v>992.279000</v>
+        <v>992.279</v>
       </c>
       <c r="AR18" s="1">
-        <v>-91.116500</v>
+        <v>-91.116500000000002</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>84890.933710</v>
+        <v>84890.933709999998</v>
       </c>
       <c r="AU18" s="1">
-        <v>23.580815</v>
+        <v>23.580815000000001</v>
       </c>
       <c r="AV18" s="1">
-        <v>1002.190000</v>
+        <v>1002.19</v>
       </c>
       <c r="AW18" s="1">
-        <v>-108.443000</v>
+        <v>-108.443</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <v>84902.017834</v>
+        <v>84902.017833999998</v>
       </c>
       <c r="AZ18" s="1">
-        <v>23.583894</v>
+        <v>23.583894000000001</v>
       </c>
       <c r="BA18" s="1">
-        <v>1010.460000</v>
+        <v>1010.46</v>
       </c>
       <c r="BB18" s="1">
-        <v>-123.895000</v>
+        <v>-123.895</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>84913.018610</v>
+        <v>84913.018609999999</v>
       </c>
       <c r="BE18" s="1">
-        <v>23.586950</v>
+        <v>23.586950000000002</v>
       </c>
       <c r="BF18" s="1">
-        <v>1049.280000</v>
+        <v>1049.28</v>
       </c>
       <c r="BG18" s="1">
-        <v>-194.843000</v>
+        <v>-194.84299999999999</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>84923.852194</v>
+        <v>84923.852194000006</v>
       </c>
       <c r="BJ18" s="1">
         <v>23.589959</v>
       </c>
       <c r="BK18" s="1">
-        <v>1116.220000</v>
+        <v>1116.22</v>
       </c>
       <c r="BL18" s="1">
-        <v>-309.418000</v>
+        <v>-309.41800000000001</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>84935.413476</v>
+        <v>84935.413476000002</v>
       </c>
       <c r="BO18" s="1">
-        <v>23.593170</v>
+        <v>23.593170000000001</v>
       </c>
       <c r="BP18" s="1">
-        <v>1224.500000</v>
+        <v>1224.5</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-488.760000</v>
+        <v>-488.76</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>84946.837333</v>
+        <v>84946.837333000003</v>
       </c>
       <c r="BT18" s="1">
-        <v>23.596344</v>
+        <v>23.596343999999998</v>
       </c>
       <c r="BU18" s="1">
-        <v>1345.810000</v>
+        <v>1345.81</v>
       </c>
       <c r="BV18" s="1">
-        <v>-684.537000</v>
+        <v>-684.53700000000003</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>84957.711590</v>
+        <v>84957.711590000006</v>
       </c>
       <c r="BY18" s="1">
-        <v>23.599364</v>
+        <v>23.599364000000001</v>
       </c>
       <c r="BZ18" s="1">
-        <v>1480.090000</v>
+        <v>1480.09</v>
       </c>
       <c r="CA18" s="1">
-        <v>-892.103000</v>
+        <v>-892.10299999999995</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
         <v>84970.237062</v>
       </c>
       <c r="CD18" s="1">
-        <v>23.602844</v>
+        <v>23.602844000000001</v>
       </c>
       <c r="CE18" s="1">
-        <v>1829.690000</v>
+        <v>1829.69</v>
       </c>
       <c r="CF18" s="1">
-        <v>-1383.750000</v>
+        <v>-1383.75</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>84795.878907</v>
+        <v>84795.878907000006</v>
       </c>
       <c r="B19" s="1">
-        <v>23.554411</v>
+        <v>23.554411000000002</v>
       </c>
       <c r="C19" s="1">
-        <v>908.291000</v>
+        <v>908.29100000000005</v>
       </c>
       <c r="D19" s="1">
-        <v>-201.798000</v>
+        <v>-201.798</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>84806.002751</v>
+        <v>84806.002751000007</v>
       </c>
       <c r="G19" s="1">
         <v>23.557223</v>
       </c>
       <c r="H19" s="1">
-        <v>926.618000</v>
+        <v>926.61800000000005</v>
       </c>
       <c r="I19" s="1">
-        <v>-171.006000</v>
+        <v>-171.006</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>84816.787877</v>
+        <v>84816.787876999995</v>
       </c>
       <c r="L19" s="1">
         <v>23.560219</v>
       </c>
       <c r="M19" s="1">
-        <v>950.313000</v>
+        <v>950.31299999999999</v>
       </c>
       <c r="N19" s="1">
-        <v>-121.716000</v>
+        <v>-121.71599999999999</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>84827.368418</v>
+        <v>84827.368417999998</v>
       </c>
       <c r="Q19" s="1">
-        <v>23.563158</v>
+        <v>23.563158000000001</v>
       </c>
       <c r="R19" s="1">
-        <v>957.421000</v>
+        <v>957.42100000000005</v>
       </c>
       <c r="S19" s="1">
-        <v>-105.237000</v>
+        <v>-105.23699999999999</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>84837.866244</v>
+        <v>84837.866244000004</v>
       </c>
       <c r="V19" s="1">
         <v>23.566074</v>
       </c>
       <c r="W19" s="1">
-        <v>964.350000</v>
+        <v>964.35</v>
       </c>
       <c r="X19" s="1">
-        <v>-89.931800</v>
+        <v>-89.931799999999996</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>84848.417182</v>
+        <v>84848.417182000005</v>
       </c>
       <c r="AA19" s="1">
-        <v>23.569005</v>
+        <v>23.569005000000001</v>
       </c>
       <c r="AB19" s="1">
-        <v>971.766000</v>
+        <v>971.76599999999996</v>
       </c>
       <c r="AC19" s="1">
-        <v>-77.889800</v>
+        <v>-77.889799999999994</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>84858.882728</v>
+        <v>84858.882727999997</v>
       </c>
       <c r="AF19" s="1">
-        <v>23.571912</v>
+        <v>23.571912000000001</v>
       </c>
       <c r="AG19" s="1">
-        <v>976.773000</v>
+        <v>976.77300000000002</v>
       </c>
       <c r="AH19" s="1">
-        <v>-75.492700</v>
+        <v>-75.492699999999999</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>84869.356250</v>
+        <v>84869.356249999997</v>
       </c>
       <c r="AK19" s="1">
         <v>23.574821</v>
       </c>
       <c r="AL19" s="1">
-        <v>984.131000</v>
+        <v>984.13099999999997</v>
       </c>
       <c r="AM19" s="1">
-        <v>-79.866800</v>
+        <v>-79.866799999999998</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>84880.314364</v>
+        <v>84880.314364000005</v>
       </c>
       <c r="AP19" s="1">
-        <v>23.577865</v>
+        <v>23.577864999999999</v>
       </c>
       <c r="AQ19" s="1">
-        <v>992.298000</v>
+        <v>992.298</v>
       </c>
       <c r="AR19" s="1">
-        <v>-91.089000</v>
+        <v>-91.088999999999999</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>84891.366223</v>
+        <v>84891.366223000005</v>
       </c>
       <c r="AU19" s="1">
         <v>23.580935</v>
       </c>
       <c r="AV19" s="1">
-        <v>1002.190000</v>
+        <v>1002.19</v>
       </c>
       <c r="AW19" s="1">
-        <v>-108.434000</v>
+        <v>-108.434</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>84902.316895</v>
+        <v>84902.316894999996</v>
       </c>
       <c r="AZ19" s="1">
-        <v>23.583977</v>
+        <v>23.583977000000001</v>
       </c>
       <c r="BA19" s="1">
-        <v>1010.460000</v>
+        <v>1010.46</v>
       </c>
       <c r="BB19" s="1">
-        <v>-123.877000</v>
+        <v>-123.877</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>84913.301296</v>
+        <v>84913.301296000005</v>
       </c>
       <c r="BE19" s="1">
         <v>23.587028</v>
       </c>
       <c r="BF19" s="1">
-        <v>1049.260000</v>
+        <v>1049.26</v>
       </c>
       <c r="BG19" s="1">
-        <v>-194.866000</v>
+        <v>-194.86600000000001</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>84924.228162</v>
+        <v>84924.228161999999</v>
       </c>
       <c r="BJ19" s="1">
-        <v>23.590063</v>
+        <v>23.590063000000001</v>
       </c>
       <c r="BK19" s="1">
-        <v>1116.220000</v>
+        <v>1116.22</v>
       </c>
       <c r="BL19" s="1">
-        <v>-309.462000</v>
+        <v>-309.46199999999999</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>84935.834050</v>
+        <v>84935.834050000005</v>
       </c>
       <c r="BO19" s="1">
         <v>23.593287</v>
       </c>
       <c r="BP19" s="1">
-        <v>1224.500000</v>
+        <v>1224.5</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-488.758000</v>
+        <v>-488.75799999999998</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>84947.250469</v>
+        <v>84947.250469000006</v>
       </c>
       <c r="BT19" s="1">
-        <v>23.596458</v>
+        <v>23.596457999999998</v>
       </c>
       <c r="BU19" s="1">
-        <v>1345.880000</v>
+        <v>1345.88</v>
       </c>
       <c r="BV19" s="1">
-        <v>-684.523000</v>
+        <v>-684.52300000000002</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
-        <v>84958.157990</v>
+        <v>84958.157990000007</v>
       </c>
       <c r="BY19" s="1">
-        <v>23.599488</v>
+        <v>23.599488000000001</v>
       </c>
       <c r="BZ19" s="1">
-        <v>1480.010000</v>
+        <v>1480.01</v>
       </c>
       <c r="CA19" s="1">
-        <v>-892.187000</v>
+        <v>-892.18700000000001</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
         <v>84970.778693</v>
       </c>
       <c r="CD19" s="1">
-        <v>23.602994</v>
+        <v>23.602993999999999</v>
       </c>
       <c r="CE19" s="1">
-        <v>1828.720000</v>
+        <v>1828.72</v>
       </c>
       <c r="CF19" s="1">
-        <v>-1384.970000</v>
+        <v>-1384.97</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>84796.533131</v>
+        <v>84796.533131000004</v>
       </c>
       <c r="B20" s="1">
-        <v>23.554593</v>
+        <v>23.554593000000001</v>
       </c>
       <c r="C20" s="1">
-        <v>908.302000</v>
+        <v>908.30200000000002</v>
       </c>
       <c r="D20" s="1">
-        <v>-201.795000</v>
+        <v>-201.79499999999999</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>84806.660941</v>
+        <v>84806.660940999995</v>
       </c>
       <c r="G20" s="1">
         <v>23.557406</v>
       </c>
       <c r="H20" s="1">
-        <v>926.274000</v>
+        <v>926.274</v>
       </c>
       <c r="I20" s="1">
-        <v>-171.223000</v>
+        <v>-171.22300000000001</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>84817.163231</v>
+        <v>84817.163230999999</v>
       </c>
       <c r="L20" s="1">
         <v>23.560323</v>
       </c>
       <c r="M20" s="1">
-        <v>950.486000</v>
+        <v>950.48599999999999</v>
       </c>
       <c r="N20" s="1">
-        <v>-121.704000</v>
+        <v>-121.70399999999999</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
         <v>84827.715656</v>
       </c>
       <c r="Q20" s="1">
-        <v>23.563254</v>
+        <v>23.563254000000001</v>
       </c>
       <c r="R20" s="1">
-        <v>957.444000</v>
+        <v>957.44399999999996</v>
       </c>
       <c r="S20" s="1">
-        <v>-105.220000</v>
+        <v>-105.22</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>84838.210468</v>
+        <v>84838.210468000005</v>
       </c>
       <c r="V20" s="1">
-        <v>23.566170</v>
+        <v>23.56617</v>
       </c>
       <c r="W20" s="1">
-        <v>964.341000</v>
+        <v>964.34100000000001</v>
       </c>
       <c r="X20" s="1">
-        <v>-89.888900</v>
+        <v>-89.888900000000007</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>84848.764342</v>
+        <v>84848.764341999995</v>
       </c>
       <c r="AA20" s="1">
         <v>23.569101</v>
       </c>
       <c r="AB20" s="1">
-        <v>971.863000</v>
+        <v>971.86300000000006</v>
       </c>
       <c r="AC20" s="1">
-        <v>-78.009300</v>
+        <v>-78.009299999999996</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <v>84859.225960</v>
+        <v>84859.225959999996</v>
       </c>
       <c r="AF20" s="1">
-        <v>23.572007</v>
+        <v>23.572006999999999</v>
       </c>
       <c r="AG20" s="1">
-        <v>976.755000</v>
+        <v>976.755</v>
       </c>
       <c r="AH20" s="1">
-        <v>-75.524700</v>
+        <v>-75.524699999999996</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>84869.797690</v>
+        <v>84869.797690000007</v>
       </c>
       <c r="AK20" s="1">
-        <v>23.574944</v>
+        <v>23.574943999999999</v>
       </c>
       <c r="AL20" s="1">
-        <v>984.136000</v>
+        <v>984.13599999999997</v>
       </c>
       <c r="AM20" s="1">
-        <v>-79.865400</v>
+        <v>-79.865399999999994</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
-        <v>84880.598800</v>
+        <v>84880.598800000007</v>
       </c>
       <c r="AP20" s="1">
-        <v>23.577944</v>
+        <v>23.577943999999999</v>
       </c>
       <c r="AQ20" s="1">
-        <v>992.290000</v>
+        <v>992.29</v>
       </c>
       <c r="AR20" s="1">
-        <v>-91.104700</v>
+        <v>-91.104699999999994</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
         <v>84891.662333</v>
       </c>
       <c r="AU20" s="1">
-        <v>23.581017</v>
+        <v>23.581016999999999</v>
       </c>
       <c r="AV20" s="1">
-        <v>1002.180000</v>
+        <v>1002.18</v>
       </c>
       <c r="AW20" s="1">
-        <v>-108.468000</v>
+        <v>-108.468</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <v>84902.674510</v>
+        <v>84902.674509999997</v>
       </c>
       <c r="AZ20" s="1">
         <v>23.584076</v>
       </c>
       <c r="BA20" s="1">
-        <v>1010.460000</v>
+        <v>1010.46</v>
       </c>
       <c r="BB20" s="1">
-        <v>-123.901000</v>
+        <v>-123.901</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>84913.664370</v>
+        <v>84913.664369999999</v>
       </c>
       <c r="BE20" s="1">
-        <v>23.587129</v>
+        <v>23.587129000000001</v>
       </c>
       <c r="BF20" s="1">
-        <v>1049.270000</v>
+        <v>1049.27</v>
       </c>
       <c r="BG20" s="1">
-        <v>-194.872000</v>
+        <v>-194.87200000000001</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>84924.602642</v>
+        <v>84924.602641999998</v>
       </c>
       <c r="BJ20" s="1">
-        <v>23.590167</v>
+        <v>23.590167000000001</v>
       </c>
       <c r="BK20" s="1">
-        <v>1116.230000</v>
+        <v>1116.23</v>
       </c>
       <c r="BL20" s="1">
-        <v>-309.432000</v>
+        <v>-309.43200000000002</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>84936.649969</v>
+        <v>84936.649969000006</v>
       </c>
       <c r="BO20" s="1">
-        <v>23.593514</v>
+        <v>23.593513999999999</v>
       </c>
       <c r="BP20" s="1">
-        <v>1224.530000</v>
+        <v>1224.53</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-488.806000</v>
+        <v>-488.80599999999998</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>84947.686452</v>
+        <v>84947.686451999994</v>
       </c>
       <c r="BT20" s="1">
-        <v>23.596580</v>
+        <v>23.596579999999999</v>
       </c>
       <c r="BU20" s="1">
-        <v>1345.810000</v>
+        <v>1345.81</v>
       </c>
       <c r="BV20" s="1">
-        <v>-684.510000</v>
+        <v>-684.51</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>84958.580580</v>
+        <v>84958.580579999994</v>
       </c>
       <c r="BY20" s="1">
-        <v>23.599606</v>
+        <v>23.599606000000001</v>
       </c>
       <c r="BZ20" s="1">
-        <v>1480.060000</v>
+        <v>1480.06</v>
       </c>
       <c r="CA20" s="1">
-        <v>-892.214000</v>
+        <v>-892.21400000000006</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>84971.314373</v>
+        <v>84971.314373000001</v>
       </c>
       <c r="CD20" s="1">
-        <v>23.603143</v>
+        <v>23.603142999999999</v>
       </c>
       <c r="CE20" s="1">
-        <v>1829.240000</v>
+        <v>1829.24</v>
       </c>
       <c r="CF20" s="1">
-        <v>-1384.820000</v>
+        <v>-1384.82</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>84796.904634</v>
+        <v>84796.904634000006</v>
       </c>
       <c r="B21" s="1">
         <v>23.554696</v>
       </c>
       <c r="C21" s="1">
-        <v>908.375000</v>
+        <v>908.375</v>
       </c>
       <c r="D21" s="1">
-        <v>-201.891000</v>
+        <v>-201.89099999999999</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>84807.037901</v>
+        <v>84807.037901000003</v>
       </c>
       <c r="G21" s="1">
-        <v>23.557511</v>
+        <v>23.557511000000002</v>
       </c>
       <c r="H21" s="1">
-        <v>926.361000</v>
+        <v>926.36099999999999</v>
       </c>
       <c r="I21" s="1">
-        <v>-170.877000</v>
+        <v>-170.87700000000001</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>84817.509439</v>
+        <v>84817.509439000001</v>
       </c>
       <c r="L21" s="1">
         <v>23.560419</v>
       </c>
       <c r="M21" s="1">
-        <v>950.465000</v>
+        <v>950.46500000000003</v>
       </c>
       <c r="N21" s="1">
-        <v>-121.656000</v>
+        <v>-121.65600000000001</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>84828.067319</v>
+        <v>84828.067318999994</v>
       </c>
       <c r="Q21" s="1">
-        <v>23.563352</v>
+        <v>23.563351999999998</v>
       </c>
       <c r="R21" s="1">
-        <v>957.481000</v>
+        <v>957.48099999999999</v>
       </c>
       <c r="S21" s="1">
-        <v>-105.209000</v>
+        <v>-105.209</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>84838.559651</v>
+        <v>84838.559651000003</v>
       </c>
       <c r="V21" s="1">
         <v>23.566267</v>
       </c>
       <c r="W21" s="1">
-        <v>964.317000</v>
+        <v>964.31700000000001</v>
       </c>
       <c r="X21" s="1">
-        <v>-89.895600</v>
+        <v>-89.895600000000002</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>84849.198874</v>
+        <v>84849.198873999994</v>
       </c>
       <c r="AA21" s="1">
         <v>23.569222</v>
       </c>
       <c r="AB21" s="1">
-        <v>971.879000</v>
+        <v>971.87900000000002</v>
       </c>
       <c r="AC21" s="1">
-        <v>-77.902900</v>
+        <v>-77.902900000000002</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>84859.681288</v>
+        <v>84859.681288000007</v>
       </c>
       <c r="AF21" s="1">
-        <v>23.572134</v>
+        <v>23.572133999999998</v>
       </c>
       <c r="AG21" s="1">
-        <v>976.742000</v>
+        <v>976.74199999999996</v>
       </c>
       <c r="AH21" s="1">
-        <v>-75.501800</v>
+        <v>-75.501800000000003</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>84870.040730</v>
+        <v>84870.040729999993</v>
       </c>
       <c r="AK21" s="1">
         <v>23.575011</v>
       </c>
       <c r="AL21" s="1">
-        <v>984.126000</v>
+        <v>984.12599999999998</v>
       </c>
       <c r="AM21" s="1">
-        <v>-79.870100</v>
+        <v>-79.870099999999994</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <v>84880.957707</v>
+        <v>84880.957706999994</v>
       </c>
       <c r="AP21" s="1">
-        <v>23.578044</v>
+        <v>23.578043999999998</v>
       </c>
       <c r="AQ21" s="1">
-        <v>992.303000</v>
+        <v>992.303</v>
       </c>
       <c r="AR21" s="1">
-        <v>-91.127000</v>
+        <v>-91.126999999999995</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>84892.026894</v>
+        <v>84892.026893999995</v>
       </c>
       <c r="AU21" s="1">
-        <v>23.581119</v>
+        <v>23.581119000000001</v>
       </c>
       <c r="AV21" s="1">
-        <v>1002.160000</v>
+        <v>1002.16</v>
       </c>
       <c r="AW21" s="1">
-        <v>-108.446000</v>
+        <v>-108.446</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
-        <v>84903.032622</v>
+        <v>84903.032621999999</v>
       </c>
       <c r="AZ21" s="1">
-        <v>23.584176</v>
+        <v>23.584175999999999</v>
       </c>
       <c r="BA21" s="1">
-        <v>1010.470000</v>
+        <v>1010.47</v>
       </c>
       <c r="BB21" s="1">
-        <v>-123.889000</v>
+        <v>-123.889</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>84914.023473</v>
+        <v>84914.023472999994</v>
       </c>
       <c r="BE21" s="1">
-        <v>23.587229</v>
+        <v>23.587229000000001</v>
       </c>
       <c r="BF21" s="1">
-        <v>1049.280000</v>
+        <v>1049.28</v>
       </c>
       <c r="BG21" s="1">
-        <v>-194.852000</v>
+        <v>-194.852</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
-        <v>84925.351602</v>
+        <v>84925.351601999995</v>
       </c>
       <c r="BJ21" s="1">
-        <v>23.590375</v>
+        <v>23.590375000000002</v>
       </c>
       <c r="BK21" s="1">
-        <v>1116.230000</v>
+        <v>1116.23</v>
       </c>
       <c r="BL21" s="1">
-        <v>-309.449000</v>
+        <v>-309.44900000000001</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>84937.067106</v>
+        <v>84937.067106000002</v>
       </c>
       <c r="BO21" s="1">
-        <v>23.593630</v>
+        <v>23.593630000000001</v>
       </c>
       <c r="BP21" s="1">
-        <v>1224.470000</v>
+        <v>1224.47</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-488.765000</v>
+        <v>-488.76499999999999</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>84948.113010</v>
+        <v>84948.113010000001</v>
       </c>
       <c r="BT21" s="1">
         <v>23.596698</v>
       </c>
       <c r="BU21" s="1">
-        <v>1345.900000</v>
+        <v>1345.9</v>
       </c>
       <c r="BV21" s="1">
-        <v>-684.375000</v>
+        <v>-684.375</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>84959.003205</v>
+        <v>84959.003205000001</v>
       </c>
       <c r="BY21" s="1">
-        <v>23.599723</v>
+        <v>23.599723000000001</v>
       </c>
       <c r="BZ21" s="1">
-        <v>1480.030000</v>
+        <v>1480.03</v>
       </c>
       <c r="CA21" s="1">
-        <v>-892.198000</v>
+        <v>-892.19799999999998</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>84972.139256</v>
+        <v>84972.139255999995</v>
       </c>
       <c r="CD21" s="1">
         <v>23.603372</v>
       </c>
       <c r="CE21" s="1">
-        <v>1830.080000</v>
+        <v>1830.08</v>
       </c>
       <c r="CF21" s="1">
-        <v>-1383.700000</v>
+        <v>-1383.7</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>84797.248859</v>
+        <v>84797.248858999999</v>
       </c>
       <c r="B22" s="1">
-        <v>23.554791</v>
+        <v>23.554791000000002</v>
       </c>
       <c r="C22" s="1">
-        <v>908.432000</v>
+        <v>908.43200000000002</v>
       </c>
       <c r="D22" s="1">
-        <v>-201.870000</v>
+        <v>-201.87</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>84807.382653</v>
+        <v>84807.382652999993</v>
       </c>
       <c r="G22" s="1">
         <v>23.557606</v>
       </c>
       <c r="H22" s="1">
-        <v>926.580000</v>
+        <v>926.58</v>
       </c>
       <c r="I22" s="1">
-        <v>-171.107000</v>
+        <v>-171.107</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>84817.859118</v>
+        <v>84817.859117999993</v>
       </c>
       <c r="L22" s="1">
         <v>23.560516</v>
       </c>
       <c r="M22" s="1">
-        <v>950.464000</v>
+        <v>950.46400000000006</v>
       </c>
       <c r="N22" s="1">
-        <v>-121.657000</v>
+        <v>-121.657</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>84828.499792</v>
+        <v>84828.499792000002</v>
       </c>
       <c r="Q22" s="1">
-        <v>23.563472</v>
+        <v>23.563472000000001</v>
       </c>
       <c r="R22" s="1">
-        <v>957.481000</v>
+        <v>957.48099999999999</v>
       </c>
       <c r="S22" s="1">
-        <v>-105.255000</v>
+        <v>-105.255</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>84838.985894</v>
+        <v>84838.985893999998</v>
       </c>
       <c r="V22" s="1">
         <v>23.566385</v>
       </c>
       <c r="W22" s="1">
-        <v>964.264000</v>
+        <v>964.26400000000001</v>
       </c>
       <c r="X22" s="1">
-        <v>-89.837800</v>
+        <v>-89.837800000000001</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>84849.460725</v>
+        <v>84849.460724999997</v>
       </c>
       <c r="AA22" s="1">
         <v>23.569295</v>
       </c>
       <c r="AB22" s="1">
-        <v>971.889000</v>
+        <v>971.88900000000001</v>
       </c>
       <c r="AC22" s="1">
-        <v>-77.884600</v>
+        <v>-77.884600000000006</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>84859.928296</v>
+        <v>84859.928295999998</v>
       </c>
       <c r="AF22" s="1">
-        <v>23.572202</v>
+        <v>23.572202000000001</v>
       </c>
       <c r="AG22" s="1">
-        <v>976.740000</v>
+        <v>976.74</v>
       </c>
       <c r="AH22" s="1">
-        <v>-75.498100</v>
+        <v>-75.498099999999994</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>84870.414217</v>
+        <v>84870.414216999998</v>
       </c>
       <c r="AK22" s="1">
         <v>23.575115</v>
       </c>
       <c r="AL22" s="1">
-        <v>984.117000</v>
+        <v>984.11699999999996</v>
       </c>
       <c r="AM22" s="1">
-        <v>-79.861400</v>
+        <v>-79.861400000000003</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
-        <v>84881.318763</v>
+        <v>84881.318763000003</v>
       </c>
       <c r="AP22" s="1">
-        <v>23.578144</v>
+        <v>23.578144000000002</v>
       </c>
       <c r="AQ22" s="1">
-        <v>992.277000</v>
+        <v>992.27700000000004</v>
       </c>
       <c r="AR22" s="1">
-        <v>-91.118000</v>
+        <v>-91.117999999999995</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>84892.390461</v>
+        <v>84892.390461000003</v>
       </c>
       <c r="AU22" s="1">
-        <v>23.581220</v>
+        <v>23.581219999999998</v>
       </c>
       <c r="AV22" s="1">
-        <v>1002.190000</v>
+        <v>1002.19</v>
       </c>
       <c r="AW22" s="1">
-        <v>-108.445000</v>
+        <v>-108.44499999999999</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>84903.750861</v>
+        <v>84903.750860999993</v>
       </c>
       <c r="AZ22" s="1">
-        <v>23.584375</v>
+        <v>23.584375000000001</v>
       </c>
       <c r="BA22" s="1">
-        <v>1010.450000</v>
+        <v>1010.45</v>
       </c>
       <c r="BB22" s="1">
-        <v>-123.888000</v>
+        <v>-123.88800000000001</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
-        <v>84914.839390</v>
+        <v>84914.839389999994</v>
       </c>
       <c r="BE22" s="1">
-        <v>23.587455</v>
+        <v>23.587454999999999</v>
       </c>
       <c r="BF22" s="1">
-        <v>1049.260000</v>
+        <v>1049.26</v>
       </c>
       <c r="BG22" s="1">
-        <v>-194.852000</v>
+        <v>-194.852</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>84925.730546</v>
+        <v>84925.730546000006</v>
       </c>
       <c r="BJ22" s="1">
         <v>23.590481</v>
       </c>
       <c r="BK22" s="1">
-        <v>1116.220000</v>
+        <v>1116.22</v>
       </c>
       <c r="BL22" s="1">
-        <v>-309.444000</v>
+        <v>-309.44400000000002</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
-        <v>84937.465889</v>
+        <v>84937.465888999999</v>
       </c>
       <c r="BO22" s="1">
-        <v>23.593741</v>
+        <v>23.593741000000001</v>
       </c>
       <c r="BP22" s="1">
-        <v>1224.510000</v>
+        <v>1224.51</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-488.778000</v>
+        <v>-488.77800000000002</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>84948.523204</v>
+        <v>84948.523203999997</v>
       </c>
       <c r="BT22" s="1">
         <v>23.596812</v>
       </c>
       <c r="BU22" s="1">
-        <v>1345.840000</v>
+        <v>1345.84</v>
       </c>
       <c r="BV22" s="1">
-        <v>-684.377000</v>
+        <v>-684.37699999999995</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>84959.766515</v>
+        <v>84959.766514999996</v>
       </c>
       <c r="BY22" s="1">
-        <v>23.599935</v>
+        <v>23.599934999999999</v>
       </c>
       <c r="BZ22" s="1">
-        <v>1480.080000</v>
+        <v>1480.08</v>
       </c>
       <c r="CA22" s="1">
-        <v>-892.231000</v>
+        <v>-892.23099999999999</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>84972.384738</v>
+        <v>84972.384737999993</v>
       </c>
       <c r="CD22" s="1">
-        <v>23.603440</v>
+        <v>23.603439999999999</v>
       </c>
       <c r="CE22" s="1">
-        <v>1828.410000</v>
+        <v>1828.41</v>
       </c>
       <c r="CF22" s="1">
-        <v>-1383.380000</v>
+        <v>-1383.38</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>84797.590106</v>
+        <v>84797.590106000003</v>
       </c>
       <c r="B23" s="1">
         <v>23.554886</v>
       </c>
       <c r="C23" s="1">
-        <v>908.128000</v>
+        <v>908.12800000000004</v>
       </c>
       <c r="D23" s="1">
-        <v>-201.871000</v>
+        <v>-201.87100000000001</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>84807.726845</v>
+        <v>84807.726844999997</v>
       </c>
       <c r="G23" s="1">
-        <v>23.557702</v>
+        <v>23.557701999999999</v>
       </c>
       <c r="H23" s="1">
-        <v>926.432000</v>
+        <v>926.43200000000002</v>
       </c>
       <c r="I23" s="1">
-        <v>-171.021000</v>
+        <v>-171.02099999999999</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>84818.284686</v>
+        <v>84818.284685999999</v>
       </c>
       <c r="L23" s="1">
-        <v>23.560635</v>
+        <v>23.560635000000001</v>
       </c>
       <c r="M23" s="1">
-        <v>950.360000</v>
+        <v>950.36</v>
       </c>
       <c r="N23" s="1">
-        <v>-121.804000</v>
+        <v>-121.804</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>84828.781024</v>
+        <v>84828.781023999996</v>
       </c>
       <c r="Q23" s="1">
-        <v>23.563550</v>
+        <v>23.563549999999999</v>
       </c>
       <c r="R23" s="1">
-        <v>957.485000</v>
+        <v>957.48500000000001</v>
       </c>
       <c r="S23" s="1">
-        <v>-105.239000</v>
+        <v>-105.239</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>84839.262484</v>
+        <v>84839.262484000006</v>
       </c>
       <c r="V23" s="1">
-        <v>23.566462</v>
+        <v>23.566462000000001</v>
       </c>
       <c r="W23" s="1">
-        <v>964.342000</v>
+        <v>964.34199999999998</v>
       </c>
       <c r="X23" s="1">
-        <v>-89.960400</v>
+        <v>-89.960400000000007</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>84849.811396</v>
+        <v>84849.811396000005</v>
       </c>
       <c r="AA23" s="1">
-        <v>23.569392</v>
+        <v>23.569392000000001</v>
       </c>
       <c r="AB23" s="1">
-        <v>971.803000</v>
+        <v>971.803</v>
       </c>
       <c r="AC23" s="1">
-        <v>-78.005200</v>
+        <v>-78.005200000000002</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>84860.281447</v>
+        <v>84860.281447000001</v>
       </c>
       <c r="AF23" s="1">
-        <v>23.572300</v>
+        <v>23.572299999999998</v>
       </c>
       <c r="AG23" s="1">
-        <v>976.761000</v>
+        <v>976.76099999999997</v>
       </c>
       <c r="AH23" s="1">
-        <v>-75.507000</v>
+        <v>-75.507000000000005</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>84870.760921</v>
+        <v>84870.760920999994</v>
       </c>
       <c r="AK23" s="1">
-        <v>23.575211</v>
+        <v>23.575210999999999</v>
       </c>
       <c r="AL23" s="1">
-        <v>984.097000</v>
+        <v>984.09699999999998</v>
       </c>
       <c r="AM23" s="1">
-        <v>-79.865100</v>
+        <v>-79.865099999999998</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <v>84882.038489</v>
+        <v>84882.038488999999</v>
       </c>
       <c r="AP23" s="1">
-        <v>23.578344</v>
+        <v>23.578344000000001</v>
       </c>
       <c r="AQ23" s="1">
-        <v>992.285000</v>
+        <v>992.28499999999997</v>
       </c>
       <c r="AR23" s="1">
-        <v>-91.113600</v>
+        <v>-91.113600000000005</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <v>84893.118123</v>
+        <v>84893.118122999993</v>
       </c>
       <c r="AU23" s="1">
         <v>23.581422</v>
       </c>
       <c r="AV23" s="1">
-        <v>1002.180000</v>
+        <v>1002.18</v>
       </c>
       <c r="AW23" s="1">
-        <v>-108.443000</v>
+        <v>-108.443</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
-        <v>84904.109945</v>
+        <v>84904.109945000004</v>
       </c>
       <c r="AZ23" s="1">
-        <v>23.584475</v>
+        <v>23.584475000000001</v>
       </c>
       <c r="BA23" s="1">
-        <v>1010.460000</v>
+        <v>1010.46</v>
       </c>
       <c r="BB23" s="1">
-        <v>-123.905000</v>
+        <v>-123.905</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
-        <v>84915.105743</v>
+        <v>84915.105742999993</v>
       </c>
       <c r="BE23" s="1">
         <v>23.587529</v>
       </c>
       <c r="BF23" s="1">
-        <v>1049.250000</v>
+        <v>1049.25</v>
       </c>
       <c r="BG23" s="1">
-        <v>-194.849000</v>
+        <v>-194.84899999999999</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>84926.102543</v>
+        <v>84926.102543000001</v>
       </c>
       <c r="BJ23" s="1">
         <v>23.590584</v>
       </c>
       <c r="BK23" s="1">
-        <v>1116.230000</v>
+        <v>1116.23</v>
       </c>
       <c r="BL23" s="1">
-        <v>-309.450000</v>
+        <v>-309.45</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>84938.198481</v>
+        <v>84938.198480999999</v>
       </c>
       <c r="BO23" s="1">
         <v>23.593944</v>
       </c>
       <c r="BP23" s="1">
-        <v>1224.500000</v>
+        <v>1224.5</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-488.787000</v>
+        <v>-488.78699999999998</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>84949.287537</v>
+        <v>84949.287536999997</v>
       </c>
       <c r="BT23" s="1">
-        <v>23.597024</v>
+        <v>23.597024000000001</v>
       </c>
       <c r="BU23" s="1">
-        <v>1345.800000</v>
+        <v>1345.8</v>
       </c>
       <c r="BV23" s="1">
-        <v>-684.355000</v>
+        <v>-684.35500000000002</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>84959.882578</v>
+        <v>84959.882578000004</v>
       </c>
       <c r="BY23" s="1">
-        <v>23.599967</v>
+        <v>23.599966999999999</v>
       </c>
       <c r="BZ23" s="1">
-        <v>1480.060000</v>
+        <v>1480.06</v>
       </c>
       <c r="CA23" s="1">
-        <v>-892.178000</v>
+        <v>-892.178</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>84972.918434</v>
+        <v>84972.918434000007</v>
       </c>
       <c r="CD23" s="1">
-        <v>23.603588</v>
+        <v>23.603587999999998</v>
       </c>
       <c r="CE23" s="1">
-        <v>1829.180000</v>
+        <v>1829.18</v>
       </c>
       <c r="CF23" s="1">
-        <v>-1384.800000</v>
+        <v>-1384.8</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
-        <v>84798.016665</v>
+        <v>84798.016665000003</v>
       </c>
       <c r="B24" s="1">
-        <v>23.555005</v>
+        <v>23.555005000000001</v>
       </c>
       <c r="C24" s="1">
-        <v>908.287000</v>
+        <v>908.28700000000003</v>
       </c>
       <c r="D24" s="1">
-        <v>-201.844000</v>
+        <v>-201.84399999999999</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>84808.176753</v>
+        <v>84808.176753000007</v>
       </c>
       <c r="G24" s="1">
         <v>23.557827</v>
       </c>
       <c r="H24" s="1">
-        <v>926.206000</v>
+        <v>926.20600000000002</v>
       </c>
       <c r="I24" s="1">
-        <v>-171.210000</v>
+        <v>-171.21</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>84818.559965</v>
+        <v>84818.559964999993</v>
       </c>
       <c r="L24" s="1">
-        <v>23.560711</v>
+        <v>23.560711000000001</v>
       </c>
       <c r="M24" s="1">
-        <v>950.299000</v>
+        <v>950.29899999999998</v>
       </c>
       <c r="N24" s="1">
-        <v>-121.755000</v>
+        <v>-121.755</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>84829.128226</v>
+        <v>84829.128226000001</v>
       </c>
       <c r="Q24" s="1">
         <v>23.563647</v>
       </c>
       <c r="R24" s="1">
-        <v>957.479000</v>
+        <v>957.47900000000004</v>
       </c>
       <c r="S24" s="1">
-        <v>-105.176000</v>
+        <v>-105.176</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
         <v>84839.608194</v>
       </c>
       <c r="V24" s="1">
-        <v>23.566558</v>
+        <v>23.566558000000001</v>
       </c>
       <c r="W24" s="1">
-        <v>964.288000</v>
+        <v>964.28800000000001</v>
       </c>
       <c r="X24" s="1">
-        <v>-89.804900</v>
+        <v>-89.804900000000004</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <v>84850.160581</v>
+        <v>84850.160581000004</v>
       </c>
       <c r="AA24" s="1">
-        <v>23.569489</v>
+        <v>23.569489000000001</v>
       </c>
       <c r="AB24" s="1">
-        <v>971.840000</v>
+        <v>971.84</v>
       </c>
       <c r="AC24" s="1">
-        <v>-77.966600</v>
+        <v>-77.9666</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>84860.625671</v>
+        <v>84860.625671000002</v>
       </c>
       <c r="AF24" s="1">
-        <v>23.572396</v>
+        <v>23.572396000000001</v>
       </c>
       <c r="AG24" s="1">
-        <v>976.770000</v>
+        <v>976.77</v>
       </c>
       <c r="AH24" s="1">
-        <v>-75.485200</v>
+        <v>-75.485200000000006</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>84871.456312</v>
+        <v>84871.456311999995</v>
       </c>
       <c r="AK24" s="1">
         <v>23.575405</v>
       </c>
       <c r="AL24" s="1">
-        <v>984.115000</v>
+        <v>984.11500000000001</v>
       </c>
       <c r="AM24" s="1">
-        <v>-79.864500</v>
+        <v>-79.864500000000007</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>84882.399545</v>
+        <v>84882.399544999993</v>
       </c>
       <c r="AP24" s="1">
-        <v>23.578444</v>
+        <v>23.578444000000001</v>
       </c>
       <c r="AQ24" s="1">
-        <v>992.284000</v>
+        <v>992.28399999999999</v>
       </c>
       <c r="AR24" s="1">
-        <v>-91.097700</v>
+        <v>-91.097700000000003</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>84893.485659</v>
+        <v>84893.485658999998</v>
       </c>
       <c r="AU24" s="1">
-        <v>23.581524</v>
+        <v>23.581524000000002</v>
       </c>
       <c r="AV24" s="1">
-        <v>1002.170000</v>
+        <v>1002.17</v>
       </c>
       <c r="AW24" s="1">
-        <v>-108.473000</v>
+        <v>-108.473</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>84904.468044</v>
+        <v>84904.468043999994</v>
       </c>
       <c r="AZ24" s="1">
         <v>23.584574</v>
       </c>
       <c r="BA24" s="1">
-        <v>1010.450000</v>
+        <v>1010.45</v>
       </c>
       <c r="BB24" s="1">
-        <v>-123.896000</v>
+        <v>-123.896</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>84915.467822</v>
+        <v>84915.467822000006</v>
       </c>
       <c r="BE24" s="1">
-        <v>23.587630</v>
+        <v>23.587630000000001</v>
       </c>
       <c r="BF24" s="1">
-        <v>1049.270000</v>
+        <v>1049.27</v>
       </c>
       <c r="BG24" s="1">
-        <v>-194.862000</v>
+        <v>-194.86199999999999</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>84926.811824</v>
+        <v>84926.811824000004</v>
       </c>
       <c r="BJ24" s="1">
         <v>23.590781</v>
       </c>
       <c r="BK24" s="1">
-        <v>1116.250000</v>
+        <v>1116.25</v>
       </c>
       <c r="BL24" s="1">
-        <v>-309.437000</v>
+        <v>-309.43700000000001</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>84938.705391</v>
+        <v>84938.705390999996</v>
       </c>
       <c r="BO24" s="1">
         <v>23.594085</v>
       </c>
       <c r="BP24" s="1">
-        <v>1224.520000</v>
+        <v>1224.52</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-488.787000</v>
+        <v>-488.78699999999998</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>84949.397649</v>
+        <v>84949.397649000006</v>
       </c>
       <c r="BT24" s="1">
-        <v>23.597055</v>
+        <v>23.597055000000001</v>
       </c>
       <c r="BU24" s="1">
-        <v>1345.780000</v>
+        <v>1345.78</v>
       </c>
       <c r="BV24" s="1">
-        <v>-684.339000</v>
+        <v>-684.33900000000006</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>84960.319058</v>
+        <v>84960.319057999994</v>
       </c>
       <c r="BY24" s="1">
-        <v>23.600089</v>
+        <v>23.600089000000001</v>
       </c>
       <c r="BZ24" s="1">
-        <v>1480.090000</v>
+        <v>1480.09</v>
       </c>
       <c r="CA24" s="1">
-        <v>-892.191000</v>
+        <v>-892.19100000000003</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>84973.458577</v>
+        <v>84973.458576999998</v>
       </c>
       <c r="CD24" s="1">
         <v>23.603738</v>
       </c>
       <c r="CE24" s="1">
-        <v>1829.440000</v>
+        <v>1829.44</v>
       </c>
       <c r="CF24" s="1">
-        <v>-1383.160000</v>
+        <v>-1383.16</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>84798.289466</v>
+        <v>84798.289466000002</v>
       </c>
       <c r="B25" s="1">
-        <v>23.555080</v>
+        <v>23.55508</v>
       </c>
       <c r="C25" s="1">
-        <v>908.161000</v>
+        <v>908.16099999999994</v>
       </c>
       <c r="D25" s="1">
-        <v>-201.928000</v>
+        <v>-201.928</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>84808.423227</v>
+        <v>84808.423227000007</v>
       </c>
       <c r="G25" s="1">
-        <v>23.557895</v>
+        <v>23.557894999999998</v>
       </c>
       <c r="H25" s="1">
-        <v>926.461000</v>
+        <v>926.46100000000001</v>
       </c>
       <c r="I25" s="1">
-        <v>-171.417000</v>
+        <v>-171.417</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>84818.907165</v>
+        <v>84818.907164999997</v>
       </c>
       <c r="L25" s="1">
-        <v>23.560808</v>
+        <v>23.560808000000002</v>
       </c>
       <c r="M25" s="1">
-        <v>950.299000</v>
+        <v>950.29899999999998</v>
       </c>
       <c r="N25" s="1">
-        <v>-121.742000</v>
+        <v>-121.742</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>84829.476911</v>
+        <v>84829.476911000005</v>
       </c>
       <c r="Q25" s="1">
         <v>23.563744</v>
       </c>
       <c r="R25" s="1">
-        <v>957.435000</v>
+        <v>957.43499999999995</v>
       </c>
       <c r="S25" s="1">
-        <v>-105.206000</v>
+        <v>-105.206</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>84839.950433</v>
+        <v>84839.950433000005</v>
       </c>
       <c r="V25" s="1">
-        <v>23.566653</v>
+        <v>23.566652999999999</v>
       </c>
       <c r="W25" s="1">
-        <v>964.358000</v>
+        <v>964.35799999999995</v>
       </c>
       <c r="X25" s="1">
-        <v>-89.840300</v>
+        <v>-89.840299999999999</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>84850.857463</v>
+        <v>84850.857462999993</v>
       </c>
       <c r="AA25" s="1">
-        <v>23.569683</v>
+        <v>23.569683000000001</v>
       </c>
       <c r="AB25" s="1">
-        <v>971.859000</v>
+        <v>971.85900000000004</v>
       </c>
       <c r="AC25" s="1">
-        <v>-77.948400</v>
+        <v>-77.948400000000007</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
         <v>84861.299734</v>
       </c>
       <c r="AF25" s="1">
-        <v>23.572583</v>
+        <v>23.572583000000002</v>
       </c>
       <c r="AG25" s="1">
-        <v>976.771000</v>
+        <v>976.77099999999996</v>
       </c>
       <c r="AH25" s="1">
-        <v>-75.498200</v>
+        <v>-75.498199999999997</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>84871.804503</v>
+        <v>84871.804503000007</v>
       </c>
       <c r="AK25" s="1">
-        <v>23.575501</v>
+        <v>23.575500999999999</v>
       </c>
       <c r="AL25" s="1">
-        <v>984.121000</v>
+        <v>984.12099999999998</v>
       </c>
       <c r="AM25" s="1">
-        <v>-79.870400</v>
+        <v>-79.870400000000004</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
         <v>84882.756664</v>
       </c>
       <c r="AP25" s="1">
-        <v>23.578544</v>
+        <v>23.578544000000001</v>
       </c>
       <c r="AQ25" s="1">
-        <v>992.290000</v>
+        <v>992.29</v>
       </c>
       <c r="AR25" s="1">
-        <v>-91.111700</v>
+        <v>-91.111699999999999</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>84893.851674</v>
+        <v>84893.851674000005</v>
       </c>
       <c r="AU25" s="1">
-        <v>23.581625</v>
+        <v>23.581624999999999</v>
       </c>
       <c r="AV25" s="1">
-        <v>1002.160000</v>
+        <v>1002.16</v>
       </c>
       <c r="AW25" s="1">
-        <v>-108.449000</v>
+        <v>-108.449</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>84905.148059</v>
+        <v>84905.148058999999</v>
       </c>
       <c r="AZ25" s="1">
-        <v>23.584763</v>
+        <v>23.584762999999999</v>
       </c>
       <c r="BA25" s="1">
-        <v>1010.440000</v>
+        <v>1010.44</v>
       </c>
       <c r="BB25" s="1">
-        <v>-123.887000</v>
+        <v>-123.887</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>84915.913725</v>
+        <v>84915.913725000006</v>
       </c>
       <c r="BE25" s="1">
         <v>23.587754</v>
       </c>
       <c r="BF25" s="1">
-        <v>1049.280000</v>
+        <v>1049.28</v>
       </c>
       <c r="BG25" s="1">
-        <v>-194.859000</v>
+        <v>-194.85900000000001</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>84927.230483</v>
+        <v>84927.230483000007</v>
       </c>
       <c r="BJ25" s="1">
-        <v>23.590897</v>
+        <v>23.590896999999998</v>
       </c>
       <c r="BK25" s="1">
-        <v>1116.200000</v>
+        <v>1116.2</v>
       </c>
       <c r="BL25" s="1">
-        <v>-309.416000</v>
+        <v>-309.416</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>84939.125503</v>
+        <v>84939.125503000003</v>
       </c>
       <c r="BO25" s="1">
-        <v>23.594202</v>
+        <v>23.594201999999999</v>
       </c>
       <c r="BP25" s="1">
-        <v>1224.480000</v>
+        <v>1224.48</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-488.792000</v>
+        <v>-488.79199999999997</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>84949.819249</v>
+        <v>84949.819248999993</v>
       </c>
       <c r="BT25" s="1">
         <v>23.597172</v>
       </c>
       <c r="BU25" s="1">
-        <v>1345.810000</v>
+        <v>1345.81</v>
       </c>
       <c r="BV25" s="1">
-        <v>-684.287000</v>
+        <v>-684.28700000000003</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>84960.740658</v>
+        <v>84960.740657999995</v>
       </c>
       <c r="BY25" s="1">
         <v>23.600206</v>
       </c>
       <c r="BZ25" s="1">
-        <v>1480.020000</v>
+        <v>1480.02</v>
       </c>
       <c r="CA25" s="1">
-        <v>-892.085000</v>
+        <v>-892.08500000000004</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>84973.997728</v>
+        <v>84973.997728000002</v>
       </c>
       <c r="CD25" s="1">
-        <v>23.603888</v>
+        <v>23.603888000000001</v>
       </c>
       <c r="CE25" s="1">
-        <v>1828.270000</v>
+        <v>1828.27</v>
       </c>
       <c r="CF25" s="1">
-        <v>-1384.420000</v>
+        <v>-1384.42</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>84798.630250</v>
+        <v>84798.630250000002</v>
       </c>
       <c r="B26" s="1">
-        <v>23.555175</v>
+        <v>23.555174999999998</v>
       </c>
       <c r="C26" s="1">
-        <v>908.267000</v>
+        <v>908.26700000000005</v>
       </c>
       <c r="D26" s="1">
-        <v>-201.906000</v>
+        <v>-201.90600000000001</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>84808.767488</v>
+        <v>84808.767487999998</v>
       </c>
       <c r="G26" s="1">
-        <v>23.557991</v>
+        <v>23.557991000000001</v>
       </c>
       <c r="H26" s="1">
-        <v>926.169000</v>
+        <v>926.16899999999998</v>
       </c>
       <c r="I26" s="1">
-        <v>-170.902000</v>
+        <v>-170.90199999999999</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>84819.248413</v>
+        <v>84819.248412999994</v>
       </c>
       <c r="L26" s="1">
-        <v>23.560902</v>
+        <v>23.560901999999999</v>
       </c>
       <c r="M26" s="1">
-        <v>950.426000</v>
+        <v>950.42600000000004</v>
       </c>
       <c r="N26" s="1">
-        <v>-121.761000</v>
+        <v>-121.761</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>84830.174286</v>
+        <v>84830.174285999994</v>
       </c>
       <c r="Q26" s="1">
-        <v>23.563937</v>
+        <v>23.563936999999999</v>
       </c>
       <c r="R26" s="1">
-        <v>957.460000</v>
+        <v>957.46</v>
       </c>
       <c r="S26" s="1">
-        <v>-105.176000</v>
+        <v>-105.176</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>84840.637888</v>
+        <v>84840.637887999997</v>
       </c>
       <c r="V26" s="1">
         <v>23.566844</v>
       </c>
       <c r="W26" s="1">
-        <v>964.413000</v>
+        <v>964.41300000000001</v>
       </c>
       <c r="X26" s="1">
-        <v>-89.937500</v>
+        <v>-89.9375</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>84851.206146</v>
+        <v>84851.206145999997</v>
       </c>
       <c r="AA26" s="1">
         <v>23.569779</v>
       </c>
       <c r="AB26" s="1">
-        <v>971.871000</v>
+        <v>971.87099999999998</v>
       </c>
       <c r="AC26" s="1">
-        <v>-77.930000</v>
+        <v>-77.930000000000007</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>84861.654373</v>
+        <v>84861.654372999998</v>
       </c>
       <c r="AF26" s="1">
         <v>23.572682</v>
       </c>
       <c r="AG26" s="1">
-        <v>976.767000</v>
+        <v>976.76700000000005</v>
       </c>
       <c r="AH26" s="1">
-        <v>-75.456500</v>
+        <v>-75.456500000000005</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>84872.157655</v>
+        <v>84872.157655000003</v>
       </c>
       <c r="AK26" s="1">
         <v>23.575599</v>
       </c>
       <c r="AL26" s="1">
-        <v>984.120000</v>
+        <v>984.12</v>
       </c>
       <c r="AM26" s="1">
-        <v>-79.879200</v>
+        <v>-79.879199999999997</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>84883.434696</v>
+        <v>84883.434695999997</v>
       </c>
       <c r="AP26" s="1">
-        <v>23.578732</v>
+        <v>23.578731999999999</v>
       </c>
       <c r="AQ26" s="1">
-        <v>992.292000</v>
+        <v>992.29200000000003</v>
       </c>
       <c r="AR26" s="1">
-        <v>-91.103600</v>
+        <v>-91.1036</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>84894.538634</v>
+        <v>84894.538633999997</v>
       </c>
       <c r="AU26" s="1">
         <v>23.581816</v>
       </c>
       <c r="AV26" s="1">
-        <v>1002.180000</v>
+        <v>1002.18</v>
       </c>
       <c r="AW26" s="1">
-        <v>-108.446000</v>
+        <v>-108.446</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>84905.546495</v>
+        <v>84905.546495000002</v>
       </c>
       <c r="AZ26" s="1">
-        <v>23.584874</v>
+        <v>23.584873999999999</v>
       </c>
       <c r="BA26" s="1">
-        <v>1010.460000</v>
+        <v>1010.46</v>
       </c>
       <c r="BB26" s="1">
-        <v>-123.890000</v>
+        <v>-123.89</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>84916.189996</v>
+        <v>84916.189996000001</v>
       </c>
       <c r="BE26" s="1">
-        <v>23.587831</v>
+        <v>23.587831000000001</v>
       </c>
       <c r="BF26" s="1">
-        <v>1049.270000</v>
+        <v>1049.27</v>
       </c>
       <c r="BG26" s="1">
-        <v>-194.845000</v>
+        <v>-194.845</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>84927.605422</v>
+        <v>84927.605421999993</v>
       </c>
       <c r="BJ26" s="1">
         <v>23.591002</v>
       </c>
       <c r="BK26" s="1">
-        <v>1116.240000</v>
+        <v>1116.24</v>
       </c>
       <c r="BL26" s="1">
-        <v>-309.450000</v>
+        <v>-309.45</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>84939.519822</v>
+        <v>84939.519822000002</v>
       </c>
       <c r="BO26" s="1">
-        <v>23.594311</v>
+        <v>23.594311000000001</v>
       </c>
       <c r="BP26" s="1">
-        <v>1224.510000</v>
+        <v>1224.51</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-488.760000</v>
+        <v>-488.76</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>84950.230928</v>
+        <v>84950.230928000004</v>
       </c>
       <c r="BT26" s="1">
         <v>23.597286</v>
       </c>
       <c r="BU26" s="1">
-        <v>1345.770000</v>
+        <v>1345.77</v>
       </c>
       <c r="BV26" s="1">
-        <v>-684.280000</v>
+        <v>-684.28</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>84961.169201</v>
+        <v>84961.169200999997</v>
       </c>
       <c r="BY26" s="1">
-        <v>23.600325</v>
+        <v>23.600325000000002</v>
       </c>
       <c r="BZ26" s="1">
-        <v>1479.960000</v>
+        <v>1479.96</v>
       </c>
       <c r="CA26" s="1">
-        <v>-892.172000</v>
+        <v>-892.17200000000003</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>84974.540537</v>
+        <v>84974.540536999993</v>
       </c>
       <c r="CD26" s="1">
         <v>23.604039</v>
       </c>
       <c r="CE26" s="1">
-        <v>1829.960000</v>
+        <v>1829.96</v>
       </c>
       <c r="CF26" s="1">
-        <v>-1384.300000</v>
+        <v>-1384.3</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>